--- a/SP_Sklad/Rep/MatInShort(1).xlsx
+++ b/SP_Sklad/Rep/MatInShort(1).xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$11:$I$106</definedName>
+    <definedName name="MatGroup">Лист1!$A$11:$I$181</definedName>
     <definedName name="MatInDet">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
@@ -133,6 +133,12 @@
     <t xml:space="preserve">Делікатесна з сиром  н.к.  1с.</t>
   </si>
   <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Салямі Европейська п.к. 1с.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Допоміжні матеріали </t>
   </si>
   <si>
@@ -154,6 +160,12 @@
     <t xml:space="preserve">Жилка </t>
   </si>
   <si>
+    <t>Напівкопчені ковбаси</t>
+  </si>
+  <si>
+    <t>Рибацька к.зап. в.с.</t>
+  </si>
+  <si>
     <t>Сосиски та сардельки</t>
   </si>
   <si>
@@ -226,6 +238,21 @@
     <t>Свинина ковбасна</t>
   </si>
   <si>
+    <t>636849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кістка  харчова( закрита назва)</t>
+  </si>
+  <si>
+    <t>636855</t>
+  </si>
+  <si>
+    <t>кістка для тварин</t>
+  </si>
+  <si>
+    <t>Обрізь від копченостей</t>
+  </si>
+  <si>
     <t>Сало та жири</t>
   </si>
   <si>
@@ -292,6 +319,12 @@
     <t>Легені свинячі</t>
   </si>
   <si>
+    <t>65674950</t>
+  </si>
+  <si>
+    <t>Язик свинячий</t>
+  </si>
+  <si>
     <t>Мясо курей</t>
   </si>
   <si>
@@ -376,6 +409,99 @@
     <t>Ребро свиняче н.ф.</t>
   </si>
   <si>
+    <t>Кури</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Кури-гриль в.с.</t>
+  </si>
+  <si>
+    <t>Шинкі та рулети</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рулет "Апетитний"  в.с</t>
+  </si>
+  <si>
+    <t>Оболонка</t>
+  </si>
+  <si>
+    <t>черева свиняча 42-44</t>
+  </si>
+  <si>
+    <t>п.метр</t>
+  </si>
+  <si>
+    <t>Альмі спеції</t>
+  </si>
+  <si>
+    <t>Алмі котлети Г/1005</t>
+  </si>
+  <si>
+    <t>Баварія РН-А</t>
+  </si>
+  <si>
+    <t>Суміш спецій Мускат</t>
+  </si>
+  <si>
+    <t>Смак шинки свинини</t>
+  </si>
+  <si>
+    <t>Блутвурст</t>
+  </si>
+  <si>
+    <t>Альмі Альфа</t>
+  </si>
+  <si>
+    <t>Вінер ЕС</t>
+  </si>
+  <si>
+    <t>Борисфен спеції</t>
+  </si>
+  <si>
+    <t>Краківська мікс</t>
+  </si>
+  <si>
+    <t>Інтехспайсез спеції (проксима)</t>
+  </si>
+  <si>
+    <t>Лафінес Алабама</t>
+  </si>
+  <si>
+    <t>Лафінес Ласвегас</t>
+  </si>
+  <si>
+    <t>Вінер комплект</t>
+  </si>
+  <si>
+    <t>ЕРПУ-Голд</t>
+  </si>
+  <si>
+    <t>Фляйшвурст</t>
+  </si>
+  <si>
+    <t>Лік-вюрц зенф Екстра</t>
+  </si>
+  <si>
+    <t>Могунція спеції</t>
+  </si>
+  <si>
+    <t>Фіксрайф Салямі класік</t>
+  </si>
+  <si>
+    <t>Натуральні Спеції</t>
+  </si>
+  <si>
+    <t>Паприка мелена</t>
+  </si>
+  <si>
+    <t>Паприка різана зелена</t>
+  </si>
+  <si>
     <t>МАТ.ЦІННОСТІ</t>
   </si>
   <si>
@@ -386,6 +512,42 @@
   </si>
   <si>
     <t>Сарделька нессе</t>
+  </si>
+  <si>
+    <t>Спеції</t>
+  </si>
+  <si>
+    <t>Мілка Вес Фікс</t>
+  </si>
+  <si>
+    <t>Аміцель</t>
+  </si>
+  <si>
+    <t>Аміцель 22 мінісмок</t>
+  </si>
+  <si>
+    <t>Едікол</t>
+  </si>
+  <si>
+    <t>Едікол 105</t>
+  </si>
+  <si>
+    <t>Наша Спеції</t>
+  </si>
+  <si>
+    <t>Наша А 382*</t>
+  </si>
+  <si>
+    <t>Спайс Ленд</t>
+  </si>
+  <si>
+    <t>Максспайс Ялівець</t>
+  </si>
+  <si>
+    <t>Перець чорний гранульований лай</t>
+  </si>
+  <si>
+    <t>Часниковий порошок</t>
   </si>
   <si>
     <t>Миючі засоби</t>
@@ -1332,8 +1494,8 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f>CONCATENATE("з "&amp;"01.07.2000"," по "&amp;"31.07.2016")</f>
-        <v>з 01.07.2000 по 31.07.2016</v>
+        <f>CONCATENATE("з "&amp;"04.03.2010"," по "&amp;"31.07.2016")</f>
+        <v>з 04.03.2010 по 31.07.2016</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1447,14 +1609,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H13" s="34">
         <f>I13/G13</f>
         <v>10</v>
       </c>
       <c r="I13" s="35">
-        <v>360</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -1470,14 +1632,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H14" s="34">
         <f>I14/G14</f>
         <v>1</v>
       </c>
       <c r="I14" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -1493,7 +1655,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H15" s="34">
         <f>I15/G15</f>
@@ -1515,7 +1677,7 @@
       <c r="H16" s="40"/>
       <c r="I16" s="41">
         <f>SUM(I13:I15)</f>
-        <v>396</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="17" ht="9" customHeight="1">
@@ -1553,14 +1715,14 @@
         <v>15</v>
       </c>
       <c r="G19" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H19" s="34">
         <f>I19/G19</f>
         <v>1</v>
       </c>
       <c r="I19" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1576,14 +1738,14 @@
         <v>15</v>
       </c>
       <c r="G20" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H20" s="34">
         <f>I20/G20</f>
         <v>1</v>
       </c>
       <c r="I20" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -1599,14 +1761,14 @@
         <v>15</v>
       </c>
       <c r="G21" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H21" s="34">
         <f>I21/G21</f>
         <v>1</v>
       </c>
       <c r="I21" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1622,14 +1784,14 @@
         <v>15</v>
       </c>
       <c r="G22" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H22" s="34">
         <f>I22/G22</f>
         <v>1</v>
       </c>
       <c r="I22" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -1644,7 +1806,7 @@
       <c r="H23" s="40"/>
       <c r="I23" s="41">
         <f>SUM(I19:I22)</f>
-        <v>144</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" ht="9" customHeight="1">
@@ -1682,14 +1844,14 @@
         <v>15</v>
       </c>
       <c r="G26" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H26" s="34">
         <f>I26/G26</f>
         <v>1</v>
       </c>
       <c r="I26" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -1705,14 +1867,14 @@
         <v>15</v>
       </c>
       <c r="G27" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H27" s="34">
         <f>I27/G27</f>
         <v>1</v>
       </c>
       <c r="I27" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -1728,75 +1890,75 @@
         <v>15</v>
       </c>
       <c r="G28" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H28" s="34">
         <f>I28/G28</f>
         <v>1</v>
       </c>
       <c r="I28" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37" t="s">
+      <c r="B29" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="33">
+        <v>1</v>
+      </c>
+      <c r="H29" s="34">
+        <f>I29/G29</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="B30" s="36"/>
+      <c r="C30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41">
-        <f>SUM(I26:I28)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" ht="9" customHeight="1">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="B31" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41">
+        <f>SUM(I26:I29)</f>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" ht="9" customHeight="1">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="B32" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="B32" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="33">
-        <v>36</v>
-      </c>
-      <c r="H32" s="34">
-        <f>I32/G32</f>
-        <v>1</v>
-      </c>
-      <c r="I32" s="35">
-        <v>36</v>
-      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="B33" s="28" t="s">
@@ -1811,14 +1973,14 @@
         <v>15</v>
       </c>
       <c r="G33" s="33">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="H33" s="34">
         <f>I33/G33</f>
-        <v>1.6521739130434783</v>
+        <v>1</v>
       </c>
       <c r="I33" s="35">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -1834,82 +1996,80 @@
         <v>15</v>
       </c>
       <c r="G34" s="33">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="H34" s="34">
         <f>I34/G34</f>
-        <v>1</v>
+        <v>1.2158273381294964</v>
       </c>
       <c r="I34" s="35">
-        <v>36</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="B35" s="36"/>
-      <c r="C35" s="37" t="s">
+      <c r="B35" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="33">
+        <v>129</v>
+      </c>
+      <c r="H35" s="34">
+        <f>I35/G35</f>
+        <v>1</v>
+      </c>
+      <c r="I35" s="35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="B36" s="36"/>
+      <c r="C36" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41">
-        <f>SUM(I32:I34)</f>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" ht="9" customHeight="1">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="24"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="B37" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="27"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41">
+        <f>SUM(I33:I35)</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="37" ht="9" customHeight="1">
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="B38" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="29" t="s">
+      <c r="B38" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="33">
-        <v>36</v>
-      </c>
-      <c r="H38" s="34">
-        <f>I38/G38</f>
-        <v>1</v>
-      </c>
-      <c r="I38" s="35">
-        <v>36</v>
-      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="27"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="31"/>
@@ -1917,91 +2077,59 @@
         <v>15</v>
       </c>
       <c r="G39" s="33">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H39" s="34">
         <f>I39/G39</f>
         <v>1</v>
       </c>
       <c r="I39" s="35">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="B40" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="33">
-        <v>36</v>
-      </c>
-      <c r="H40" s="34">
-        <f>I40/G40</f>
-        <v>1</v>
-      </c>
-      <c r="I40" s="35">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="B41" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="33">
-        <v>36</v>
-      </c>
-      <c r="H41" s="34">
-        <f>I41/G41</f>
-        <v>1</v>
-      </c>
-      <c r="I41" s="35">
-        <v>36</v>
-      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="41">
+        <f>SUM(I39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="9" customHeight="1">
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="B42" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="33">
-        <v>36</v>
-      </c>
-      <c r="H42" s="34">
-        <f>I42/G42</f>
-        <v>1</v>
-      </c>
-      <c r="I42" s="35">
-        <v>36</v>
-      </c>
+      <c r="B42" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="B43" s="28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="31"/>
@@ -2009,22 +2137,22 @@
         <v>15</v>
       </c>
       <c r="G43" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H43" s="34">
         <f>I43/G43</f>
         <v>1</v>
       </c>
       <c r="I43" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="B44" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="31"/>
@@ -2032,59 +2160,91 @@
         <v>15</v>
       </c>
       <c r="G44" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H44" s="34">
         <f>I44/G44</f>
         <v>1</v>
       </c>
       <c r="I44" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="B45" s="36"/>
-      <c r="C45" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="41">
-        <f>SUM(I38:I44)</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" ht="9" customHeight="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="24"/>
+      <c r="B45" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="33">
+        <v>129</v>
+      </c>
+      <c r="H45" s="34">
+        <f>I45/G45</f>
+        <v>1</v>
+      </c>
+      <c r="I45" s="35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75" customHeight="1">
+      <c r="B46" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="33">
+        <v>129</v>
+      </c>
+      <c r="H46" s="34">
+        <f>I46/G46</f>
+        <v>1</v>
+      </c>
+      <c r="I46" s="35">
+        <v>129</v>
+      </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="B47" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
+      <c r="B47" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="33">
+        <v>129</v>
+      </c>
+      <c r="H47" s="34">
+        <f>I47/G47</f>
+        <v>1</v>
+      </c>
+      <c r="I47" s="35">
+        <v>129</v>
+      </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="B48" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="29" t="s">
         <v>60</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>61</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
@@ -2092,22 +2252,22 @@
         <v>15</v>
       </c>
       <c r="G48" s="33">
-        <v>437</v>
+        <v>129</v>
       </c>
       <c r="H48" s="34">
         <f>I48/G48</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I48" s="35">
-        <v>4370</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="B49" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="29" t="s">
         <v>62</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>63</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="31"/>
@@ -2115,105 +2275,105 @@
         <v>15</v>
       </c>
       <c r="G49" s="33">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="H49" s="34">
         <f>I49/G49</f>
-        <v>15.813953488372093</v>
+        <v>1</v>
       </c>
       <c r="I49" s="35">
-        <v>1360</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="41">
+        <f>SUM(I43:I49)</f>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="51" ht="9" customHeight="1">
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" ht="12.75" customHeight="1">
+      <c r="B52" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="B53" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C53" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="33">
-        <v>36</v>
-      </c>
-      <c r="H50" s="34">
-        <f>I50/G50</f>
-        <v>1</v>
-      </c>
-      <c r="I50" s="35">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="B51" s="28" t="s">
+      <c r="D53" s="30"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="33">
+        <v>530</v>
+      </c>
+      <c r="H53" s="34">
+        <f>I53/G53</f>
+        <v>10</v>
+      </c>
+      <c r="I53" s="35">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="54" ht="12.75" customHeight="1">
+      <c r="B54" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C54" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="33">
-        <v>76</v>
-      </c>
-      <c r="H51" s="34">
-        <f>I51/G51</f>
-        <v>5.2105263157894735</v>
-      </c>
-      <c r="I51" s="35">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="B52" s="36"/>
-      <c r="C52" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="41">
-        <f>SUM(I48:I51)</f>
-        <v>6162</v>
-      </c>
-    </row>
-    <row r="53" ht="9" customHeight="1">
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="24"/>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="B54" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="27"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="33">
+        <v>179</v>
+      </c>
+      <c r="H54" s="34">
+        <f>I54/G54</f>
+        <v>12.793296089385475</v>
+      </c>
+      <c r="I54" s="35">
+        <v>2290</v>
+      </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="B55" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="29" t="s">
         <v>69</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>70</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="31"/>
@@ -2221,22 +2381,22 @@
         <v>15</v>
       </c>
       <c r="G55" s="33">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="H55" s="34">
         <f>I55/G55</f>
-        <v>19.125</v>
+        <v>1</v>
       </c>
       <c r="I55" s="35">
-        <v>1836</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="B56" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>71</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>72</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="31"/>
@@ -2244,22 +2404,22 @@
         <v>15</v>
       </c>
       <c r="G56" s="33">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="H56" s="34">
         <f>I56/G56</f>
-        <v>1</v>
+        <v>2.8934911242603549</v>
       </c>
       <c r="I56" s="35">
-        <v>36</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="B57" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>73</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>74</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="31"/>
@@ -2267,22 +2427,22 @@
         <v>15</v>
       </c>
       <c r="G57" s="33">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="H57" s="34">
         <f>I57/G57</f>
-        <v>2.4285714285714284</v>
+        <v>1</v>
       </c>
       <c r="I57" s="35">
-        <v>136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="B58" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>75</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>76</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="31"/>
@@ -2290,82 +2450,80 @@
         <v>15</v>
       </c>
       <c r="G58" s="33">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="H58" s="34">
         <f>I58/G58</f>
-        <v>4.1818181818181817</v>
+        <v>1</v>
       </c>
       <c r="I58" s="35">
-        <v>276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="B59" s="36"/>
-      <c r="C59" s="37" t="s">
+      <c r="B59" s="28"/>
+      <c r="C59" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="33">
+        <v>1</v>
+      </c>
+      <c r="H59" s="34">
+        <f>I59/G59</f>
+        <v>1</v>
+      </c>
+      <c r="I59" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" ht="12.75" customHeight="1">
+      <c r="B60" s="36"/>
+      <c r="C60" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="41">
-        <f>SUM(I55:I58)</f>
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="60" ht="9" customHeight="1">
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="24"/>
-    </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="B61" s="25" t="s">
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="41">
+        <f>SUM(I53:I59)</f>
+        <v>8211</v>
+      </c>
+    </row>
+    <row r="61" ht="9" customHeight="1">
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="24"/>
+    </row>
+    <row r="62" ht="12.75" customHeight="1">
+      <c r="B62" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="27"/>
-    </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="B62" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="33">
-        <v>36</v>
-      </c>
-      <c r="H62" s="34">
-        <f>I62/G62</f>
-        <v>1</v>
-      </c>
-      <c r="I62" s="35">
-        <v>36</v>
-      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="27"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="B63" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="31"/>
@@ -2373,20 +2531,22 @@
         <v>15</v>
       </c>
       <c r="G63" s="33">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="H63" s="34">
         <f>I63/G63</f>
-        <v>1</v>
+        <v>10.206349206349206</v>
       </c>
       <c r="I63" s="35">
-        <v>36</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="B64" s="28"/>
+      <c r="B64" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="C64" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="31"/>
@@ -2394,105 +2554,105 @@
         <v>15</v>
       </c>
       <c r="G64" s="33">
-        <v>10000</v>
+        <v>129</v>
       </c>
       <c r="H64" s="34">
         <f>I64/G64</f>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I64" s="35">
-        <v>500000</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="B65" s="36"/>
-      <c r="C65" s="37" t="s">
+      <c r="B65" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="30"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="33">
+        <v>149</v>
+      </c>
+      <c r="H65" s="34">
+        <f>I65/G65</f>
+        <v>1.5369127516778522</v>
+      </c>
+      <c r="I65" s="35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" ht="12.75" customHeight="1">
+      <c r="B66" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="30"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="33">
+        <v>159</v>
+      </c>
+      <c r="H66" s="34">
+        <f>I66/G66</f>
+        <v>2.3207547169811322</v>
+      </c>
+      <c r="I66" s="35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" ht="12.75" customHeight="1">
+      <c r="B67" s="36"/>
+      <c r="C67" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="41">
-        <f>SUM(I62:I64)</f>
-        <v>500072</v>
-      </c>
-    </row>
-    <row r="66" ht="9" customHeight="1">
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="24"/>
-    </row>
-    <row r="67" ht="12.75" customHeight="1">
-      <c r="B67" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="27"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1">
-      <c r="B68" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="33">
-        <v>36</v>
-      </c>
-      <c r="H68" s="34">
-        <f>I68/G68</f>
-        <v>1</v>
-      </c>
-      <c r="I68" s="35">
-        <v>36</v>
-      </c>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="41">
+        <f>SUM(I63:I66)</f>
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="68" ht="9" customHeight="1">
+      <c r="B68" s="22"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="24"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="33">
-        <v>36</v>
-      </c>
-      <c r="H69" s="34">
-        <f>I69/G69</f>
-        <v>1</v>
-      </c>
-      <c r="I69" s="35">
-        <v>36</v>
-      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="27"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="B70" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="29" t="s">
         <v>88</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>89</v>
       </c>
       <c r="D70" s="30"/>
       <c r="E70" s="31"/>
@@ -2500,105 +2660,103 @@
         <v>15</v>
       </c>
       <c r="G70" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H70" s="34">
         <f>I70/G70</f>
         <v>1</v>
       </c>
       <c r="I70" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="B71" s="36"/>
-      <c r="C71" s="37" t="s">
+      <c r="B71" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="30"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="33">
+        <v>129</v>
+      </c>
+      <c r="H71" s="34">
+        <f>I71/G71</f>
+        <v>1</v>
+      </c>
+      <c r="I71" s="35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" ht="12.75" customHeight="1">
+      <c r="B72" s="28"/>
+      <c r="C72" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="30"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="33">
+        <v>10000</v>
+      </c>
+      <c r="H72" s="34">
+        <f>I72/G72</f>
+        <v>50</v>
+      </c>
+      <c r="I72" s="35">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="73" ht="12.75" customHeight="1">
+      <c r="B73" s="36"/>
+      <c r="C73" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="41">
-        <f>SUM(I68:I70)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" ht="9" customHeight="1">
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="24"/>
-    </row>
-    <row r="73" ht="12.75" customHeight="1">
-      <c r="B73" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="27"/>
-    </row>
-    <row r="74" ht="12.75" customHeight="1">
-      <c r="B74" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="29" t="s">
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="41">
+        <f>SUM(I70:I72)</f>
+        <v>500258</v>
+      </c>
+    </row>
+    <row r="74" ht="9" customHeight="1">
+      <c r="B74" s="22"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="24"/>
+    </row>
+    <row r="75" ht="12.75" customHeight="1">
+      <c r="B75" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="33">
-        <v>36</v>
-      </c>
-      <c r="H74" s="34">
-        <f>I74/G74</f>
-        <v>1</v>
-      </c>
-      <c r="I74" s="35">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" ht="12.75" customHeight="1">
-      <c r="B75" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="33">
-        <v>36</v>
-      </c>
-      <c r="H75" s="34">
-        <f>I75/G75</f>
-        <v>11</v>
-      </c>
-      <c r="I75" s="35">
-        <v>396</v>
-      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="27"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="B76" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="31"/>
@@ -2606,22 +2764,22 @@
         <v>15</v>
       </c>
       <c r="G76" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H76" s="34">
         <f>I76/G76</f>
         <v>1</v>
       </c>
       <c r="I76" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="B77" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="31"/>
@@ -2629,22 +2787,22 @@
         <v>15</v>
       </c>
       <c r="G77" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H77" s="34">
         <f>I77/G77</f>
         <v>1</v>
       </c>
       <c r="I77" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="B78" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D78" s="30"/>
       <c r="E78" s="31"/>
@@ -2652,22 +2810,22 @@
         <v>15</v>
       </c>
       <c r="G78" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H78" s="34">
         <f>I78/G78</f>
         <v>1</v>
       </c>
       <c r="I78" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="B79" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="31"/>
@@ -2675,14 +2833,14 @@
         <v>15</v>
       </c>
       <c r="G79" s="33">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H79" s="34">
         <f>I79/G79</f>
         <v>1</v>
       </c>
       <c r="I79" s="35">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -2696,8 +2854,8 @@
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
       <c r="I80" s="41">
-        <f>SUM(I74:I79)</f>
-        <v>576</v>
+        <f>SUM(I76:I79)</f>
+        <v>388</v>
       </c>
     </row>
     <row r="81" ht="9" customHeight="1">
@@ -2712,7 +2870,7 @@
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="B82" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
@@ -2724,10 +2882,10 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="B83" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="31"/>
@@ -2735,22 +2893,22 @@
         <v>15</v>
       </c>
       <c r="G83" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H83" s="34">
         <f>I83/G83</f>
         <v>1</v>
       </c>
       <c r="I83" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="B84" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="31"/>
@@ -2758,22 +2916,22 @@
         <v>15</v>
       </c>
       <c r="G84" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H84" s="34">
         <f>I84/G84</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I84" s="35">
-        <v>36</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="B85" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="31"/>
@@ -2781,22 +2939,22 @@
         <v>15</v>
       </c>
       <c r="G85" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H85" s="34">
         <f>I85/G85</f>
         <v>1</v>
       </c>
       <c r="I85" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="B86" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="31"/>
@@ -2804,22 +2962,22 @@
         <v>15</v>
       </c>
       <c r="G86" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H86" s="34">
         <f>I86/G86</f>
         <v>1</v>
       </c>
       <c r="I86" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="B87" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="31"/>
@@ -2827,22 +2985,22 @@
         <v>15</v>
       </c>
       <c r="G87" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H87" s="34">
         <f>I87/G87</f>
         <v>1</v>
       </c>
       <c r="I87" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="B88" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="31"/>
@@ -2850,80 +3008,82 @@
         <v>15</v>
       </c>
       <c r="G88" s="33">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H88" s="34">
         <f>I88/G88</f>
         <v>1</v>
       </c>
       <c r="I88" s="35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="36"/>
+      <c r="C89" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="41">
+        <f>SUM(I83:I88)</f>
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="90" ht="9" customHeight="1">
+      <c r="B90" s="22"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="24"/>
+    </row>
+    <row r="91" ht="12.75" customHeight="1">
+      <c r="B91" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="27"/>
+    </row>
+    <row r="92" ht="12.75" customHeight="1">
+      <c r="B92" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="D92" s="30"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="33">
+        <v>129</v>
+      </c>
+      <c r="H92" s="34">
+        <f>I92/G92</f>
+        <v>1</v>
+      </c>
+      <c r="I92" s="35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" ht="12.75" customHeight="1">
+      <c r="B93" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D89" s="30"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="33">
-        <v>36</v>
-      </c>
-      <c r="H89" s="34">
-        <f>I89/G89</f>
-        <v>1</v>
-      </c>
-      <c r="I89" s="35">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" ht="12.75" customHeight="1">
-      <c r="B90" s="36"/>
-      <c r="C90" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="41">
-        <f>SUM(I83:I89)</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="91" ht="9" customHeight="1">
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="24"/>
-    </row>
-    <row r="92" ht="12.75" customHeight="1">
-      <c r="B92" s="25" t="s">
+      <c r="C93" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="27"/>
-    </row>
-    <row r="93" ht="12.75" customHeight="1">
-      <c r="B93" s="28"/>
-      <c r="C93" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="31"/>
@@ -2931,57 +3091,91 @@
         <v>15</v>
       </c>
       <c r="G93" s="33">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="H93" s="34">
         <f>I93/G93</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I93" s="35">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="B94" s="36"/>
-      <c r="C94" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="41">
-        <f>SUM(I93)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" ht="9" customHeight="1">
-      <c r="B95" s="22"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="24"/>
+      <c r="B94" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="30"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="33">
+        <v>129</v>
+      </c>
+      <c r="H94" s="34">
+        <f>I94/G94</f>
+        <v>1</v>
+      </c>
+      <c r="I94" s="35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" ht="12.75" customHeight="1">
+      <c r="B95" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="30"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="33">
+        <v>129</v>
+      </c>
+      <c r="H95" s="34">
+        <f>I95/G95</f>
+        <v>1</v>
+      </c>
+      <c r="I95" s="35">
+        <v>129</v>
+      </c>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="B96" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="27"/>
+      <c r="B96" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="30"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="33">
+        <v>129</v>
+      </c>
+      <c r="H96" s="34">
+        <f>I96/G96</f>
+        <v>1</v>
+      </c>
+      <c r="I96" s="35">
+        <v>129</v>
+      </c>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="B97" s="28"/>
+      <c r="B97" s="28" t="s">
+        <v>125</v>
+      </c>
       <c r="C97" s="29" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="31"/>
@@ -2989,284 +3183,1400 @@
         <v>15</v>
       </c>
       <c r="G97" s="33">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H97" s="34">
         <f>I97/G97</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I97" s="35">
-        <v>40</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="B98" s="36"/>
-      <c r="C98" s="37" t="s">
+      <c r="B98" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" s="30"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="33">
+        <v>129</v>
+      </c>
+      <c r="H98" s="34">
+        <f>I98/G98</f>
+        <v>1</v>
+      </c>
+      <c r="I98" s="35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" ht="12.75" customHeight="1">
+      <c r="B99" s="36"/>
+      <c r="C99" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="41">
-        <f>SUM(I97)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" ht="9" customHeight="1">
-      <c r="B99" s="22"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="24"/>
-    </row>
-    <row r="100" ht="12.75" customHeight="1">
-      <c r="B100" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="27"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="41">
+        <f>SUM(I92:I98)</f>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="100" ht="9" customHeight="1">
+      <c r="B100" s="22"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="24"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="B101" s="28"/>
-      <c r="C101" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D101" s="30"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" s="33">
-        <v>57</v>
-      </c>
-      <c r="H101" s="34">
-        <f>I101/G101</f>
-        <v>356.94736842105266</v>
-      </c>
-      <c r="I101" s="35">
-        <v>20346</v>
-      </c>
+      <c r="B101" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="27"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="B102" s="28"/>
+      <c r="B102" s="28" t="s">
+        <v>130</v>
+      </c>
       <c r="C102" s="29" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="31"/>
       <c r="F102" s="32" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="G102" s="33">
-        <v>2121</v>
+        <v>1</v>
       </c>
       <c r="H102" s="34">
         <f>I102/G102</f>
+        <v>10</v>
+      </c>
+      <c r="I102" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" ht="12.75" customHeight="1">
+      <c r="B103" s="36"/>
+      <c r="C103" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="41">
+        <f>SUM(I102)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" ht="9" customHeight="1">
+      <c r="B104" s="22"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="24"/>
+    </row>
+    <row r="105" ht="12.75" customHeight="1">
+      <c r="B105" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="27"/>
+    </row>
+    <row r="106" ht="12.75" customHeight="1">
+      <c r="B106" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106" s="30"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="33">
+        <v>1</v>
+      </c>
+      <c r="H106" s="34">
+        <f>I106/G106</f>
+        <v>1</v>
+      </c>
+      <c r="I106" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" ht="12.75" customHeight="1">
+      <c r="B107" s="36"/>
+      <c r="C107" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="41">
+        <f>SUM(I106)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" ht="9" customHeight="1">
+      <c r="B108" s="22"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="24"/>
+    </row>
+    <row r="109" ht="12.75" customHeight="1">
+      <c r="B109" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="27"/>
+    </row>
+    <row r="110" ht="12.75" customHeight="1">
+      <c r="B110" s="28"/>
+      <c r="C110" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D110" s="30"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="G110" s="33">
+        <v>1</v>
+      </c>
+      <c r="H110" s="34">
+        <f>I110/G110</f>
+        <v>1</v>
+      </c>
+      <c r="I110" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" ht="12.75" customHeight="1">
+      <c r="B111" s="36"/>
+      <c r="C111" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="38"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="41">
+        <f>SUM(I110)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" ht="9" customHeight="1">
+      <c r="B112" s="22"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="24"/>
+    </row>
+    <row r="113" ht="12.75" customHeight="1">
+      <c r="B113" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="27"/>
+    </row>
+    <row r="114" ht="12.75" customHeight="1">
+      <c r="B114" s="28"/>
+      <c r="C114" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D114" s="30"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="33">
+        <v>1</v>
+      </c>
+      <c r="H114" s="34">
+        <f>I114/G114</f>
+        <v>1</v>
+      </c>
+      <c r="I114" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" ht="12.75" customHeight="1">
+      <c r="B115" s="28"/>
+      <c r="C115" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D115" s="30"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="33">
+        <v>1</v>
+      </c>
+      <c r="H115" s="34">
+        <f>I115/G115</f>
+        <v>1</v>
+      </c>
+      <c r="I115" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" ht="12.75" customHeight="1">
+      <c r="B116" s="28"/>
+      <c r="C116" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D116" s="30"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="33">
+        <v>1</v>
+      </c>
+      <c r="H116" s="34">
+        <f>I116/G116</f>
+        <v>1</v>
+      </c>
+      <c r="I116" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" ht="12.75" customHeight="1">
+      <c r="B117" s="28"/>
+      <c r="C117" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D117" s="30"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="33">
+        <v>1</v>
+      </c>
+      <c r="H117" s="34">
+        <f>I117/G117</f>
+        <v>1</v>
+      </c>
+      <c r="I117" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" ht="12.75" customHeight="1">
+      <c r="B118" s="28"/>
+      <c r="C118" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D118" s="30"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="33">
+        <v>1</v>
+      </c>
+      <c r="H118" s="34">
+        <f>I118/G118</f>
+        <v>10</v>
+      </c>
+      <c r="I118" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" ht="12.75" customHeight="1">
+      <c r="B119" s="28"/>
+      <c r="C119" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119" s="30"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="33">
+        <v>1</v>
+      </c>
+      <c r="H119" s="34">
+        <f>I119/G119</f>
+        <v>1</v>
+      </c>
+      <c r="I119" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" ht="12.75" customHeight="1">
+      <c r="B120" s="28"/>
+      <c r="C120" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D120" s="30"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="33">
+        <v>1</v>
+      </c>
+      <c r="H120" s="34">
+        <f>I120/G120</f>
+        <v>10</v>
+      </c>
+      <c r="I120" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" ht="12.75" customHeight="1">
+      <c r="B121" s="36"/>
+      <c r="C121" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="38"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="40"/>
+      <c r="I121" s="41">
+        <f>SUM(I114:I120)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" ht="9" customHeight="1">
+      <c r="B122" s="22"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="24"/>
+    </row>
+    <row r="123" ht="12.75" customHeight="1">
+      <c r="B123" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="27"/>
+    </row>
+    <row r="124" ht="12.75" customHeight="1">
+      <c r="B124" s="28"/>
+      <c r="C124" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D124" s="30"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="33">
+        <v>1</v>
+      </c>
+      <c r="H124" s="34">
+        <f>I124/G124</f>
+        <v>0</v>
+      </c>
+      <c r="I124" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" ht="12.75" customHeight="1">
+      <c r="B125" s="36"/>
+      <c r="C125" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="38"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="40"/>
+      <c r="I125" s="41">
+        <f>SUM(I124)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" ht="9" customHeight="1">
+      <c r="B126" s="22"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="24"/>
+    </row>
+    <row r="127" ht="12.75" customHeight="1">
+      <c r="B127" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="27"/>
+    </row>
+    <row r="128" ht="12.75" customHeight="1">
+      <c r="B128" s="28"/>
+      <c r="C128" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D128" s="30"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="33">
+        <v>1</v>
+      </c>
+      <c r="H128" s="34">
+        <f>I128/G128</f>
+        <v>0</v>
+      </c>
+      <c r="I128" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" ht="12.75" customHeight="1">
+      <c r="B129" s="28"/>
+      <c r="C129" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D129" s="30"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="33">
+        <v>1</v>
+      </c>
+      <c r="H129" s="34">
+        <f>I129/G129</f>
+        <v>11</v>
+      </c>
+      <c r="I129" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" ht="12.75" customHeight="1">
+      <c r="B130" s="28"/>
+      <c r="C130" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D130" s="30"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="33">
+        <v>1</v>
+      </c>
+      <c r="H130" s="34">
+        <f>I130/G130</f>
+        <v>1</v>
+      </c>
+      <c r="I130" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" ht="12.75" customHeight="1">
+      <c r="B131" s="28"/>
+      <c r="C131" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" s="30"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="33">
+        <v>1</v>
+      </c>
+      <c r="H131" s="34">
+        <f>I131/G131</f>
+        <v>1</v>
+      </c>
+      <c r="I131" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" ht="12.75" customHeight="1">
+      <c r="B132" s="28"/>
+      <c r="C132" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D132" s="30"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="33">
+        <v>1</v>
+      </c>
+      <c r="H132" s="34">
+        <f>I132/G132</f>
+        <v>1</v>
+      </c>
+      <c r="I132" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" ht="12.75" customHeight="1">
+      <c r="B133" s="28"/>
+      <c r="C133" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D133" s="30"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="33">
+        <v>1</v>
+      </c>
+      <c r="H133" s="34">
+        <f>I133/G133</f>
+        <v>1</v>
+      </c>
+      <c r="I133" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" ht="12.75" customHeight="1">
+      <c r="B134" s="36"/>
+      <c r="C134" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="38"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="39"/>
+      <c r="G134" s="40"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="41">
+        <f>SUM(I128:I133)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" ht="9" customHeight="1">
+      <c r="B135" s="22"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="24"/>
+    </row>
+    <row r="136" ht="12.75" customHeight="1">
+      <c r="B136" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="27"/>
+    </row>
+    <row r="137" ht="12.75" customHeight="1">
+      <c r="B137" s="28"/>
+      <c r="C137" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D137" s="30"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="33">
+        <v>1</v>
+      </c>
+      <c r="H137" s="34">
+        <f>I137/G137</f>
+        <v>1</v>
+      </c>
+      <c r="I137" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" ht="12.75" customHeight="1">
+      <c r="B138" s="36"/>
+      <c r="C138" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="38"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="39"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="41">
+        <f>SUM(I137)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" ht="9" customHeight="1">
+      <c r="B139" s="22"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="24"/>
+    </row>
+    <row r="140" ht="12.75" customHeight="1">
+      <c r="B140" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="27"/>
+    </row>
+    <row r="141" ht="12.75" customHeight="1">
+      <c r="B141" s="28"/>
+      <c r="C141" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D141" s="30"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="33">
+        <v>1</v>
+      </c>
+      <c r="H141" s="34">
+        <f>I141/G141</f>
+        <v>1</v>
+      </c>
+      <c r="I141" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" ht="12.75" customHeight="1">
+      <c r="B142" s="28"/>
+      <c r="C142" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D142" s="30"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="33">
+        <v>1</v>
+      </c>
+      <c r="H142" s="34">
+        <f>I142/G142</f>
+        <v>1</v>
+      </c>
+      <c r="I142" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" ht="12.75" customHeight="1">
+      <c r="B143" s="36"/>
+      <c r="C143" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="38"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="40"/>
+      <c r="I143" s="41">
+        <f>SUM(I141:I142)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" ht="9" customHeight="1">
+      <c r="B144" s="22"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="23"/>
+      <c r="I144" s="24"/>
+    </row>
+    <row r="145" ht="12.75" customHeight="1">
+      <c r="B145" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="27"/>
+    </row>
+    <row r="146" ht="12.75" customHeight="1">
+      <c r="B146" s="28"/>
+      <c r="C146" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146" s="30"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="33">
+        <v>1</v>
+      </c>
+      <c r="H146" s="34">
+        <f>I146/G146</f>
+        <v>10</v>
+      </c>
+      <c r="I146" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" ht="12.75" customHeight="1">
+      <c r="B147" s="36"/>
+      <c r="C147" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="38"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="39"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="40"/>
+      <c r="I147" s="41">
+        <f>SUM(I146)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" ht="9" customHeight="1">
+      <c r="B148" s="22"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="23"/>
+      <c r="I148" s="24"/>
+    </row>
+    <row r="149" ht="12.75" customHeight="1">
+      <c r="B149" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149" s="26"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="27"/>
+    </row>
+    <row r="150" ht="12.75" customHeight="1">
+      <c r="B150" s="28"/>
+      <c r="C150" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" s="30"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" s="33">
+        <v>10</v>
+      </c>
+      <c r="H150" s="34">
+        <f>I150/G150</f>
+        <v>4</v>
+      </c>
+      <c r="I150" s="35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" ht="12.75" customHeight="1">
+      <c r="B151" s="36"/>
+      <c r="C151" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="38"/>
+      <c r="E151" s="38"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="40"/>
+      <c r="H151" s="40"/>
+      <c r="I151" s="41">
+        <f>SUM(I150)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" ht="9" customHeight="1">
+      <c r="B152" s="22"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="23"/>
+      <c r="I152" s="24"/>
+    </row>
+    <row r="153" ht="12.75" customHeight="1">
+      <c r="B153" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" s="26"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="27"/>
+    </row>
+    <row r="154" ht="12.75" customHeight="1">
+      <c r="B154" s="28"/>
+      <c r="C154" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D154" s="30"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="33">
+        <v>1</v>
+      </c>
+      <c r="H154" s="34">
+        <f>I154/G154</f>
+        <v>1</v>
+      </c>
+      <c r="I154" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" ht="12.75" customHeight="1">
+      <c r="B155" s="36"/>
+      <c r="C155" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="38"/>
+      <c r="E155" s="38"/>
+      <c r="F155" s="39"/>
+      <c r="G155" s="40"/>
+      <c r="H155" s="40"/>
+      <c r="I155" s="41">
+        <f>SUM(I154)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" ht="9" customHeight="1">
+      <c r="B156" s="22"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="23"/>
+      <c r="I156" s="24"/>
+    </row>
+    <row r="157" ht="12.75" customHeight="1">
+      <c r="B157" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="27"/>
+    </row>
+    <row r="158" ht="12.75" customHeight="1">
+      <c r="B158" s="28"/>
+      <c r="C158" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D158" s="30"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="33">
+        <v>1</v>
+      </c>
+      <c r="H158" s="34">
+        <f>I158/G158</f>
+        <v>2</v>
+      </c>
+      <c r="I158" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" ht="12.75" customHeight="1">
+      <c r="B159" s="36"/>
+      <c r="C159" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="38"/>
+      <c r="E159" s="38"/>
+      <c r="F159" s="39"/>
+      <c r="G159" s="40"/>
+      <c r="H159" s="40"/>
+      <c r="I159" s="41">
+        <f>SUM(I158)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" ht="9" customHeight="1">
+      <c r="B160" s="22"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
+      <c r="I160" s="24"/>
+    </row>
+    <row r="161" ht="12.75" customHeight="1">
+      <c r="B161" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" s="26"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="27"/>
+    </row>
+    <row r="162" ht="12.75" customHeight="1">
+      <c r="B162" s="28"/>
+      <c r="C162" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D162" s="30"/>
+      <c r="E162" s="31"/>
+      <c r="F162" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="G162" s="33">
+        <v>1</v>
+      </c>
+      <c r="H162" s="34">
+        <f>I162/G162</f>
+        <v>10</v>
+      </c>
+      <c r="I162" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" ht="12.75" customHeight="1">
+      <c r="B163" s="36"/>
+      <c r="C163" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="38"/>
+      <c r="E163" s="38"/>
+      <c r="F163" s="39"/>
+      <c r="G163" s="40"/>
+      <c r="H163" s="40"/>
+      <c r="I163" s="41">
+        <f>SUM(I162)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" ht="9" customHeight="1">
+      <c r="B164" s="22"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
+      <c r="I164" s="24"/>
+    </row>
+    <row r="165" ht="12.75" customHeight="1">
+      <c r="B165" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="26"/>
+      <c r="I165" s="27"/>
+    </row>
+    <row r="166" ht="12.75" customHeight="1">
+      <c r="B166" s="28"/>
+      <c r="C166" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D166" s="30"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="33">
+        <v>1</v>
+      </c>
+      <c r="H166" s="34">
+        <f>I166/G166</f>
+        <v>2</v>
+      </c>
+      <c r="I166" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" ht="12.75" customHeight="1">
+      <c r="B167" s="36"/>
+      <c r="C167" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="38"/>
+      <c r="E167" s="38"/>
+      <c r="F167" s="39"/>
+      <c r="G167" s="40"/>
+      <c r="H167" s="40"/>
+      <c r="I167" s="41">
+        <f>SUM(I166)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" ht="9" customHeight="1">
+      <c r="B168" s="22"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="23"/>
+      <c r="I168" s="24"/>
+    </row>
+    <row r="169" ht="12.75" customHeight="1">
+      <c r="B169" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C169" s="26"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="26"/>
+      <c r="H169" s="26"/>
+      <c r="I169" s="27"/>
+    </row>
+    <row r="170" ht="12.75" customHeight="1">
+      <c r="B170" s="28"/>
+      <c r="C170" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D170" s="30"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="33">
+        <v>1</v>
+      </c>
+      <c r="H170" s="34">
+        <f>I170/G170</f>
+        <v>2</v>
+      </c>
+      <c r="I170" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" ht="12.75" customHeight="1">
+      <c r="B171" s="28"/>
+      <c r="C171" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D171" s="30"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" s="33">
+        <v>1</v>
+      </c>
+      <c r="H171" s="34">
+        <f>I171/G171</f>
+        <v>2</v>
+      </c>
+      <c r="I171" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" ht="12.75" customHeight="1">
+      <c r="B172" s="28"/>
+      <c r="C172" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172" s="30"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" s="33">
+        <v>1</v>
+      </c>
+      <c r="H172" s="34">
+        <f>I172/G172</f>
+        <v>2</v>
+      </c>
+      <c r="I172" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" ht="12.75" customHeight="1">
+      <c r="B173" s="36"/>
+      <c r="C173" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" s="38"/>
+      <c r="E173" s="38"/>
+      <c r="F173" s="39"/>
+      <c r="G173" s="40"/>
+      <c r="H173" s="40"/>
+      <c r="I173" s="41">
+        <f>SUM(I170:I172)</f>
         <v>6</v>
       </c>
-      <c r="I102" s="35">
+    </row>
+    <row r="174" ht="9" customHeight="1">
+      <c r="B174" s="22"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="23"/>
+      <c r="I174" s="24"/>
+    </row>
+    <row r="175" ht="12.75" customHeight="1">
+      <c r="B175" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" s="26"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="26"/>
+      <c r="I175" s="27"/>
+    </row>
+    <row r="176" ht="12.75" customHeight="1">
+      <c r="B176" s="28"/>
+      <c r="C176" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D176" s="30"/>
+      <c r="E176" s="31"/>
+      <c r="F176" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" s="33">
+        <v>57</v>
+      </c>
+      <c r="H176" s="34">
+        <f>I176/G176</f>
+        <v>356.94736842105266</v>
+      </c>
+      <c r="I176" s="35">
+        <v>20346</v>
+      </c>
+    </row>
+    <row r="177" ht="12.75" customHeight="1">
+      <c r="B177" s="28"/>
+      <c r="C177" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D177" s="30"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G177" s="33">
+        <v>2121</v>
+      </c>
+      <c r="H177" s="34">
+        <f>I177/G177</f>
+        <v>6</v>
+      </c>
+      <c r="I177" s="35">
         <v>12726</v>
       </c>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
-      <c r="B103" s="28"/>
-      <c r="C103" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D103" s="30"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G103" s="33">
+    <row r="178" ht="12.75" customHeight="1">
+      <c r="B178" s="28"/>
+      <c r="C178" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D178" s="30"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G178" s="33">
         <v>21</v>
       </c>
-      <c r="H103" s="34">
-        <f>I103/G103</f>
+      <c r="H178" s="34">
+        <f>I178/G178</f>
         <v>50</v>
       </c>
-      <c r="I103" s="35">
+      <c r="I178" s="35">
         <v>1050</v>
       </c>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
-      <c r="B104" s="28"/>
-      <c r="C104" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D104" s="30"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G104" s="33">
+    <row r="179" ht="12.75" customHeight="1">
+      <c r="B179" s="28"/>
+      <c r="C179" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179" s="30"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G179" s="33">
         <v>545</v>
       </c>
-      <c r="H104" s="34">
-        <f>I104/G104</f>
+      <c r="H179" s="34">
+        <f>I179/G179</f>
         <v>120</v>
       </c>
-      <c r="I104" s="35">
+      <c r="I179" s="35">
         <v>65400</v>
       </c>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
-      <c r="B105" s="28"/>
-      <c r="C105" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D105" s="30"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G105" s="33">
+    <row r="180" ht="12.75" customHeight="1">
+      <c r="B180" s="28"/>
+      <c r="C180" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180" s="30"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G180" s="33">
         <v>4541</v>
       </c>
-      <c r="H105" s="34">
-        <f>I105/G105</f>
+      <c r="H180" s="34">
+        <f>I180/G180</f>
         <v>24</v>
       </c>
-      <c r="I105" s="35">
+      <c r="I180" s="35">
         <v>108984</v>
       </c>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
-      <c r="B106" s="36"/>
-      <c r="C106" s="37" t="s">
+    <row r="181" ht="12.75" customHeight="1">
+      <c r="B181" s="36"/>
+      <c r="C181" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="41">
-        <f>SUM(I101:I105)</f>
+      <c r="D181" s="38"/>
+      <c r="E181" s="38"/>
+      <c r="F181" s="39"/>
+      <c r="G181" s="40"/>
+      <c r="H181" s="40"/>
+      <c r="I181" s="41">
+        <f>SUM(I176:I180)</f>
         <v>208506</v>
       </c>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
-      <c r="B107" s="42"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
-      <c r="I107" s="44"/>
-    </row>
-    <row r="108" ht="12.75" customHeight="1">
-      <c r="B108" s="45"/>
-      <c r="C108" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="D108" s="47"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="49"/>
-      <c r="I108" s="50"/>
-    </row>
-    <row r="109" ht="12.75" customHeight="1">
-      <c r="B109" s="51"/>
-      <c r="C109" s="52"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="53"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="53"/>
-    </row>
-    <row r="110" ht="12.75" customHeight="1">
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-    </row>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1">
+      <c r="B182" s="42"/>
+      <c r="D182" s="43"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="44"/>
+      <c r="I182" s="44"/>
+    </row>
+    <row r="183" ht="12.75" customHeight="1">
+      <c r="B183" s="45"/>
+      <c r="C183" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D183" s="47"/>
+      <c r="E183" s="47"/>
+      <c r="F183" s="48"/>
+      <c r="G183" s="49"/>
+      <c r="H183" s="49"/>
+      <c r="I183" s="50"/>
+    </row>
+    <row r="184" ht="12.75" customHeight="1">
+      <c r="B184" s="51"/>
+      <c r="C184" s="52"/>
+      <c r="D184" s="51"/>
+      <c r="E184" s="51"/>
+      <c r="F184" s="53"/>
+      <c r="G184" s="53"/>
+      <c r="H184" s="53"/>
+      <c r="I184" s="53"/>
+    </row>
+    <row r="185" ht="12.75" customHeight="1">
+      <c r="G185" s="51"/>
+      <c r="H185" s="51"/>
+      <c r="I185" s="51"/>
+    </row>
     <row r="186" ht="12.75" customHeight="1"/>
     <row r="187" ht="12.75" customHeight="1"/>
     <row r="188" ht="12.75" customHeight="1"/>
@@ -3278,8 +4588,83 @@
     <row r="194" ht="12.75" customHeight="1"/>
     <row r="195" ht="12.75" customHeight="1"/>
     <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="122">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="F9:F10"/>
@@ -3300,39 +4685,39 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B32:I32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B38:I38"/>
     <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B42:I42"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C44:E44"/>
-    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C57:E57"/>
     <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B62:I62"/>
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="C64:E64"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B69:I69"/>
     <mergeCell ref="C70:E70"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="B75:I75"/>
     <mergeCell ref="C76:E76"/>
     <mergeCell ref="C77:E77"/>
     <mergeCell ref="C78:E78"/>
@@ -3344,17 +4729,64 @@
     <mergeCell ref="C86:E86"/>
     <mergeCell ref="C87:E87"/>
     <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="B91:I91"/>
+    <mergeCell ref="C92:E92"/>
     <mergeCell ref="C93:E93"/>
-    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
     <mergeCell ref="C97:E97"/>
-    <mergeCell ref="B100:I100"/>
-    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="B101:I101"/>
     <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="B105:I105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="B109:I109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="B123:I123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="B127:I127"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="B136:I136"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="B140:I140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="B145:I145"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="B149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="B157:I157"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="B161:I161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="B165:I165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="B169:I169"/>
+    <mergeCell ref="C170:E170"/>
+    <mergeCell ref="C171:E171"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="B175:I175"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="C177:E177"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="C180:E180"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>

--- a/SP_Sklad/Rep/MatInShort(1).xlsx
+++ b/SP_Sklad/Rep/MatInShort(1).xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$11:$I$93</definedName>
+    <definedName name="MatGroup">Лист1!$A$11:$I$107</definedName>
     <definedName name="MatInDet">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
@@ -380,6 +380,30 @@
   </si>
   <si>
     <t>п.метр</t>
+  </si>
+  <si>
+    <t>Аміцель</t>
+  </si>
+  <si>
+    <t>Аміцель 22 мінісмок</t>
+  </si>
+  <si>
+    <t>Наша Спеції</t>
+  </si>
+  <si>
+    <t>Наша А 382*</t>
+  </si>
+  <si>
+    <t>Спайс Ленд</t>
+  </si>
+  <si>
+    <t>Максспайс Ялівець</t>
+  </si>
+  <si>
+    <t>Перець чорний гранульований лай</t>
+  </si>
+  <si>
+    <t>Часниковий порошок</t>
   </si>
   <si>
     <t>Всього по відомості:</t>
@@ -1305,8 +1329,8 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f>CONCATENATE("з "&amp;"01.07.2016"," по "&amp;"31.07.2016")</f>
-        <v>з 01.07.2016 по 31.07.2016</v>
+        <f>CONCATENATE("з "&amp;"01.05.2016"," по "&amp;"31.08.2016")</f>
+        <v>з 01.05.2016 по 31.08.2016</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1420,14 +1444,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H13" s="34">
         <f>I13/G13</f>
         <v>10</v>
       </c>
       <c r="I13" s="35">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -1443,14 +1467,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H14" s="34">
         <f>I14/G14</f>
         <v>1</v>
       </c>
       <c r="I14" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -1466,7 +1490,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H15" s="34">
         <f>I15/G15</f>
@@ -1488,7 +1512,7 @@
       <c r="H16" s="40"/>
       <c r="I16" s="41">
         <f>SUM(I13:I15)</f>
-        <v>44</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" ht="9" customHeight="1">
@@ -1526,14 +1550,14 @@
         <v>15</v>
       </c>
       <c r="G19" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H19" s="34">
         <f>I19/G19</f>
         <v>1</v>
       </c>
       <c r="I19" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1549,14 +1573,14 @@
         <v>15</v>
       </c>
       <c r="G20" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H20" s="34">
         <f>I20/G20</f>
         <v>1</v>
       </c>
       <c r="I20" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -1572,14 +1596,14 @@
         <v>15</v>
       </c>
       <c r="G21" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H21" s="34">
         <f>I21/G21</f>
         <v>1</v>
       </c>
       <c r="I21" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1595,14 +1619,14 @@
         <v>15</v>
       </c>
       <c r="G22" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H22" s="34">
         <f>I22/G22</f>
         <v>1</v>
       </c>
       <c r="I22" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -1617,7 +1641,7 @@
       <c r="H23" s="40"/>
       <c r="I23" s="41">
         <f>SUM(I19:I22)</f>
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="9" customHeight="1">
@@ -1655,14 +1679,14 @@
         <v>15</v>
       </c>
       <c r="G26" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H26" s="34">
         <f>I26/G26</f>
         <v>1</v>
       </c>
       <c r="I26" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -1678,14 +1702,14 @@
         <v>15</v>
       </c>
       <c r="G27" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H27" s="34">
         <f>I27/G27</f>
         <v>1</v>
       </c>
       <c r="I27" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -1701,14 +1725,14 @@
         <v>15</v>
       </c>
       <c r="G28" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H28" s="34">
         <f>I28/G28</f>
         <v>1</v>
       </c>
       <c r="I28" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1723,7 +1747,7 @@
       <c r="H29" s="40"/>
       <c r="I29" s="41">
         <f>SUM(I26:I28)</f>
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="9" customHeight="1">
@@ -1761,14 +1785,14 @@
         <v>15</v>
       </c>
       <c r="G32" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H32" s="34">
         <f>I32/G32</f>
         <v>1</v>
       </c>
       <c r="I32" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1784,14 +1808,14 @@
         <v>15</v>
       </c>
       <c r="G33" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H33" s="34">
         <f>I33/G33</f>
         <v>1</v>
       </c>
       <c r="I33" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -1807,14 +1831,14 @@
         <v>15</v>
       </c>
       <c r="G34" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H34" s="34">
         <f>I34/G34</f>
         <v>1</v>
       </c>
       <c r="I34" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1829,7 +1853,7 @@
       <c r="H35" s="40"/>
       <c r="I35" s="41">
         <f>SUM(I32:I34)</f>
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="9" customHeight="1">
@@ -1867,14 +1891,14 @@
         <v>15</v>
       </c>
       <c r="G38" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H38" s="34">
         <f>I38/G38</f>
-        <v>2</v>
+        <v>1.3076923076923077</v>
       </c>
       <c r="I38" s="35">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -1890,14 +1914,14 @@
         <v>15</v>
       </c>
       <c r="G39" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H39" s="34">
         <f>I39/G39</f>
         <v>1</v>
       </c>
       <c r="I39" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -1913,14 +1937,14 @@
         <v>15</v>
       </c>
       <c r="G40" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H40" s="34">
         <f>I40/G40</f>
         <v>1</v>
       </c>
       <c r="I40" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -1936,14 +1960,14 @@
         <v>15</v>
       </c>
       <c r="G41" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H41" s="34">
         <f>I41/G41</f>
         <v>1</v>
       </c>
       <c r="I41" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -1959,14 +1983,14 @@
         <v>15</v>
       </c>
       <c r="G42" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H42" s="34">
         <f>I42/G42</f>
         <v>1</v>
       </c>
       <c r="I42" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -1982,14 +2006,14 @@
         <v>15</v>
       </c>
       <c r="G43" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H43" s="34">
         <f>I43/G43</f>
         <v>1</v>
       </c>
       <c r="I43" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -2005,14 +2029,14 @@
         <v>15</v>
       </c>
       <c r="G44" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H44" s="34">
         <f>I44/G44</f>
         <v>1</v>
       </c>
       <c r="I44" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -2027,7 +2051,7 @@
       <c r="H45" s="40"/>
       <c r="I45" s="41">
         <f>SUM(I38:I44)</f>
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" ht="9" customHeight="1">
@@ -2065,14 +2089,14 @@
         <v>15</v>
       </c>
       <c r="G48" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H48" s="34">
         <f>I48/G48</f>
         <v>10</v>
       </c>
       <c r="I48" s="35">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -2088,14 +2112,14 @@
         <v>15</v>
       </c>
       <c r="G49" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H49" s="34">
         <f>I49/G49</f>
         <v>10</v>
       </c>
       <c r="I49" s="35">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -2111,14 +2135,14 @@
         <v>15</v>
       </c>
       <c r="G50" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H50" s="34">
         <f>I50/G50</f>
         <v>1</v>
       </c>
       <c r="I50" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -2134,14 +2158,14 @@
         <v>15</v>
       </c>
       <c r="G51" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H51" s="34">
         <f>I51/G51</f>
         <v>1</v>
       </c>
       <c r="I51" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
@@ -2156,7 +2180,7 @@
       <c r="H52" s="40"/>
       <c r="I52" s="41">
         <f>SUM(I48:I51)</f>
-        <v>88</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" ht="9" customHeight="1">
@@ -2194,14 +2218,14 @@
         <v>15</v>
       </c>
       <c r="G55" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H55" s="34">
         <f>I55/G55</f>
         <v>1</v>
       </c>
       <c r="I55" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -2217,14 +2241,14 @@
         <v>15</v>
       </c>
       <c r="G56" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H56" s="34">
         <f>I56/G56</f>
         <v>1</v>
       </c>
       <c r="I56" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -2240,14 +2264,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H57" s="34">
         <f>I57/G57</f>
         <v>1</v>
       </c>
       <c r="I57" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -2263,14 +2287,14 @@
         <v>15</v>
       </c>
       <c r="G58" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H58" s="34">
         <f>I58/G58</f>
         <v>1</v>
       </c>
       <c r="I58" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
@@ -2285,7 +2309,7 @@
       <c r="H59" s="40"/>
       <c r="I59" s="41">
         <f>SUM(I55:I58)</f>
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" ht="9" customHeight="1">
@@ -2323,14 +2347,14 @@
         <v>15</v>
       </c>
       <c r="G62" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H62" s="34">
         <f>I62/G62</f>
         <v>1</v>
       </c>
       <c r="I62" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -2346,14 +2370,14 @@
         <v>15</v>
       </c>
       <c r="G63" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H63" s="34">
         <f>I63/G63</f>
         <v>1</v>
       </c>
       <c r="I63" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -2368,7 +2392,7 @@
       <c r="H64" s="40"/>
       <c r="I64" s="41">
         <f>SUM(I62:I63)</f>
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="9" customHeight="1">
@@ -2406,14 +2430,14 @@
         <v>15</v>
       </c>
       <c r="G67" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H67" s="34">
         <f>I67/G67</f>
         <v>1</v>
       </c>
       <c r="I67" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -2429,14 +2453,14 @@
         <v>15</v>
       </c>
       <c r="G68" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H68" s="34">
         <f>I68/G68</f>
         <v>1</v>
       </c>
       <c r="I68" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -2452,14 +2476,14 @@
         <v>15</v>
       </c>
       <c r="G69" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H69" s="34">
         <f>I69/G69</f>
         <v>1</v>
       </c>
       <c r="I69" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -2474,7 +2498,7 @@
       <c r="H70" s="40"/>
       <c r="I70" s="41">
         <f>SUM(I67:I69)</f>
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" ht="9" customHeight="1">
@@ -2512,14 +2536,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H73" s="34">
         <f>I73/G73</f>
         <v>1</v>
       </c>
       <c r="I73" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -2535,14 +2559,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H74" s="34">
         <f>I74/G74</f>
         <v>11</v>
       </c>
       <c r="I74" s="35">
-        <v>44</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
@@ -2558,14 +2582,14 @@
         <v>15</v>
       </c>
       <c r="G75" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H75" s="34">
         <f>I75/G75</f>
         <v>1</v>
       </c>
       <c r="I75" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -2581,14 +2605,14 @@
         <v>15</v>
       </c>
       <c r="G76" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H76" s="34">
         <f>I76/G76</f>
         <v>1</v>
       </c>
       <c r="I76" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -2604,14 +2628,14 @@
         <v>15</v>
       </c>
       <c r="G77" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H77" s="34">
         <f>I77/G77</f>
         <v>1</v>
       </c>
       <c r="I77" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -2627,14 +2651,14 @@
         <v>15</v>
       </c>
       <c r="G78" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H78" s="34">
         <f>I78/G78</f>
         <v>1</v>
       </c>
       <c r="I78" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -2649,7 +2673,7 @@
       <c r="H79" s="40"/>
       <c r="I79" s="41">
         <f>SUM(I73:I78)</f>
-        <v>64</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" ht="9" customHeight="1">
@@ -2687,14 +2711,14 @@
         <v>15</v>
       </c>
       <c r="G82" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H82" s="34">
         <f>I82/G82</f>
         <v>1</v>
       </c>
       <c r="I82" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -2710,14 +2734,14 @@
         <v>15</v>
       </c>
       <c r="G83" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H83" s="34">
         <f>I83/G83</f>
         <v>1</v>
       </c>
       <c r="I83" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -2733,14 +2757,14 @@
         <v>15</v>
       </c>
       <c r="G84" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H84" s="34">
         <f>I84/G84</f>
         <v>1</v>
       </c>
       <c r="I84" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -2756,14 +2780,14 @@
         <v>15</v>
       </c>
       <c r="G85" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H85" s="34">
         <f>I85/G85</f>
         <v>1</v>
       </c>
       <c r="I85" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -2779,14 +2803,14 @@
         <v>15</v>
       </c>
       <c r="G86" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H86" s="34">
         <f>I86/G86</f>
         <v>1</v>
       </c>
       <c r="I86" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -2802,14 +2826,14 @@
         <v>15</v>
       </c>
       <c r="G87" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H87" s="34">
         <f>I87/G87</f>
         <v>1</v>
       </c>
       <c r="I87" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
@@ -2825,14 +2849,14 @@
         <v>15</v>
       </c>
       <c r="G88" s="33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H88" s="34">
         <f>I88/G88</f>
         <v>1</v>
       </c>
       <c r="I88" s="35">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
@@ -2847,7 +2871,7 @@
       <c r="H89" s="40"/>
       <c r="I89" s="41">
         <f>SUM(I82:I88)</f>
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" ht="9" customHeight="1">
@@ -2908,56 +2932,258 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
-      <c r="B94" s="42"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
+    <row r="94" ht="9" customHeight="1">
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="24"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="B95" s="45"/>
-      <c r="C95" s="46" t="s">
+      <c r="B95" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="50"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="27"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="B96" s="51"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" s="30"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="33">
+        <v>1</v>
+      </c>
+      <c r="H96" s="34">
+        <f>I96/G96</f>
+        <v>2</v>
+      </c>
+      <c r="I96" s="35">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="51"/>
-    </row>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="41">
+        <f>SUM(I96)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" ht="9" customHeight="1">
+      <c r="B98" s="22"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="24"/>
+    </row>
+    <row r="99" ht="12.75" customHeight="1">
+      <c r="B99" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="27"/>
+    </row>
+    <row r="100" ht="12.75" customHeight="1">
+      <c r="B100" s="28"/>
+      <c r="C100" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" s="30"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="33">
+        <v>1</v>
+      </c>
+      <c r="H100" s="34">
+        <f>I100/G100</f>
+        <v>2</v>
+      </c>
+      <c r="I100" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" ht="12.75" customHeight="1">
+      <c r="B101" s="36"/>
+      <c r="C101" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="41">
+        <f>SUM(I100)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" ht="9" customHeight="1">
+      <c r="B102" s="22"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="24"/>
+    </row>
+    <row r="103" ht="12.75" customHeight="1">
+      <c r="B103" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="27"/>
+    </row>
+    <row r="104" ht="12.75" customHeight="1">
+      <c r="B104" s="28"/>
+      <c r="C104" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" s="30"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="33">
+        <v>1</v>
+      </c>
+      <c r="H104" s="34">
+        <f>I104/G104</f>
+        <v>2</v>
+      </c>
+      <c r="I104" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" ht="12.75" customHeight="1">
+      <c r="B105" s="28"/>
+      <c r="C105" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="30"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="33">
+        <v>1</v>
+      </c>
+      <c r="H105" s="34">
+        <f>I105/G105</f>
+        <v>2</v>
+      </c>
+      <c r="I105" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" ht="12.75" customHeight="1">
+      <c r="B106" s="28"/>
+      <c r="C106" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="30"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="33">
+        <v>1</v>
+      </c>
+      <c r="H106" s="34">
+        <f>I106/G106</f>
+        <v>2</v>
+      </c>
+      <c r="I106" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" ht="12.75" customHeight="1">
+      <c r="B107" s="36"/>
+      <c r="C107" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="41">
+        <f>SUM(I104:I106)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" ht="12.75" customHeight="1">
+      <c r="B108" s="42"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+    </row>
+    <row r="109" ht="12.75" customHeight="1">
+      <c r="B109" s="45"/>
+      <c r="C109" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D109" s="47"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="50"/>
+    </row>
+    <row r="110" ht="12.75" customHeight="1">
+      <c r="B110" s="51"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="53"/>
+    </row>
+    <row r="111" ht="12.75" customHeight="1">
+      <c r="G111" s="51"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="51"/>
+    </row>
     <row r="112" ht="12.75" customHeight="1"/>
     <row r="113" ht="12.75" customHeight="1"/>
     <row r="114" ht="12.75" customHeight="1"/>
@@ -3030,8 +3256,22 @@
     <row r="181" ht="12.75" customHeight="1"/>
     <row r="182" ht="12.75" customHeight="1"/>
     <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="74">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="F9:F10"/>
@@ -3098,6 +3338,14 @@
     <mergeCell ref="C88:E88"/>
     <mergeCell ref="B91:I91"/>
     <mergeCell ref="C92:E92"/>
+    <mergeCell ref="B95:I95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="B103:I103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>

--- a/SP_Sklad/Rep/MatInShort(1).xlsx
+++ b/SP_Sklad/Rep/MatInShort(1).xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$11:$I$107</definedName>
+    <definedName name="MatGroup">Лист1!$A$11:$I$93</definedName>
     <definedName name="MatInDet">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
@@ -380,30 +380,6 @@
   </si>
   <si>
     <t>п.метр</t>
-  </si>
-  <si>
-    <t>Аміцель</t>
-  </si>
-  <si>
-    <t>Аміцель 22 мінісмок</t>
-  </si>
-  <si>
-    <t>Наша Спеції</t>
-  </si>
-  <si>
-    <t>Наша А 382*</t>
-  </si>
-  <si>
-    <t>Спайс Ленд</t>
-  </si>
-  <si>
-    <t>Максспайс Ялівець</t>
-  </si>
-  <si>
-    <t>Перець чорний гранульований лай</t>
-  </si>
-  <si>
-    <t>Часниковий порошок</t>
   </si>
   <si>
     <t>Всього по відомості:</t>
@@ -1329,8 +1305,8 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f>CONCATENATE("з "&amp;"01.05.2016"," по "&amp;"31.08.2016")</f>
-        <v>з 01.05.2016 по 31.08.2016</v>
+        <f>CONCATENATE("з "&amp;"01.07.2016"," по "&amp;"30.09.2016")</f>
+        <v>з 01.07.2016 по 30.09.2016</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1444,14 +1420,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H13" s="34">
         <f>I13/G13</f>
         <v>10</v>
       </c>
       <c r="I13" s="35">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -1467,14 +1443,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H14" s="34">
         <f>I14/G14</f>
         <v>1</v>
       </c>
       <c r="I14" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -1490,7 +1466,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H15" s="34">
         <f>I15/G15</f>
@@ -1512,7 +1488,7 @@
       <c r="H16" s="40"/>
       <c r="I16" s="41">
         <f>SUM(I13:I15)</f>
-        <v>143</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="9" customHeight="1">
@@ -1550,14 +1526,14 @@
         <v>15</v>
       </c>
       <c r="G19" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H19" s="34">
         <f>I19/G19</f>
         <v>1</v>
       </c>
       <c r="I19" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1573,14 +1549,14 @@
         <v>15</v>
       </c>
       <c r="G20" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H20" s="34">
         <f>I20/G20</f>
         <v>1</v>
       </c>
       <c r="I20" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -1596,14 +1572,14 @@
         <v>15</v>
       </c>
       <c r="G21" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H21" s="34">
         <f>I21/G21</f>
         <v>1</v>
       </c>
       <c r="I21" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1619,14 +1595,14 @@
         <v>15</v>
       </c>
       <c r="G22" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H22" s="34">
         <f>I22/G22</f>
         <v>1</v>
       </c>
       <c r="I22" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -1641,7 +1617,7 @@
       <c r="H23" s="40"/>
       <c r="I23" s="41">
         <f>SUM(I19:I22)</f>
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="9" customHeight="1">
@@ -1679,14 +1655,14 @@
         <v>15</v>
       </c>
       <c r="G26" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H26" s="34">
         <f>I26/G26</f>
         <v>1</v>
       </c>
       <c r="I26" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -1702,14 +1678,14 @@
         <v>15</v>
       </c>
       <c r="G27" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H27" s="34">
         <f>I27/G27</f>
         <v>1</v>
       </c>
       <c r="I27" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -1725,14 +1701,14 @@
         <v>15</v>
       </c>
       <c r="G28" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H28" s="34">
         <f>I28/G28</f>
         <v>1</v>
       </c>
       <c r="I28" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1747,7 +1723,7 @@
       <c r="H29" s="40"/>
       <c r="I29" s="41">
         <f>SUM(I26:I28)</f>
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" ht="9" customHeight="1">
@@ -1785,14 +1761,14 @@
         <v>15</v>
       </c>
       <c r="G32" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H32" s="34">
         <f>I32/G32</f>
         <v>1</v>
       </c>
       <c r="I32" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1808,14 +1784,14 @@
         <v>15</v>
       </c>
       <c r="G33" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H33" s="34">
         <f>I33/G33</f>
         <v>1</v>
       </c>
       <c r="I33" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -1831,14 +1807,14 @@
         <v>15</v>
       </c>
       <c r="G34" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H34" s="34">
         <f>I34/G34</f>
         <v>1</v>
       </c>
       <c r="I34" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1853,7 +1829,7 @@
       <c r="H35" s="40"/>
       <c r="I35" s="41">
         <f>SUM(I32:I34)</f>
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" ht="9" customHeight="1">
@@ -1891,14 +1867,14 @@
         <v>15</v>
       </c>
       <c r="G38" s="33">
-        <v>13</v>
+        <v>1005</v>
       </c>
       <c r="H38" s="34">
         <f>I38/G38</f>
-        <v>1.3076923076923077</v>
+        <v>4.9840796019900502</v>
       </c>
       <c r="I38" s="35">
-        <v>17</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -1914,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="G39" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H39" s="34">
         <f>I39/G39</f>
         <v>1</v>
       </c>
       <c r="I39" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -1937,14 +1913,14 @@
         <v>15</v>
       </c>
       <c r="G40" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H40" s="34">
         <f>I40/G40</f>
         <v>1</v>
       </c>
       <c r="I40" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -1960,14 +1936,14 @@
         <v>15</v>
       </c>
       <c r="G41" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H41" s="34">
         <f>I41/G41</f>
         <v>1</v>
       </c>
       <c r="I41" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -1983,14 +1959,14 @@
         <v>15</v>
       </c>
       <c r="G42" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H42" s="34">
         <f>I42/G42</f>
         <v>1</v>
       </c>
       <c r="I42" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -2006,14 +1982,14 @@
         <v>15</v>
       </c>
       <c r="G43" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H43" s="34">
         <f>I43/G43</f>
         <v>1</v>
       </c>
       <c r="I43" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -2029,14 +2005,14 @@
         <v>15</v>
       </c>
       <c r="G44" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H44" s="34">
         <f>I44/G44</f>
         <v>1</v>
       </c>
       <c r="I44" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -2051,7 +2027,7 @@
       <c r="H45" s="40"/>
       <c r="I45" s="41">
         <f>SUM(I38:I44)</f>
-        <v>95</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="46" ht="9" customHeight="1">
@@ -2089,14 +2065,14 @@
         <v>15</v>
       </c>
       <c r="G48" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H48" s="34">
         <f>I48/G48</f>
         <v>10</v>
       </c>
       <c r="I48" s="35">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -2112,14 +2088,14 @@
         <v>15</v>
       </c>
       <c r="G49" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H49" s="34">
         <f>I49/G49</f>
         <v>10</v>
       </c>
       <c r="I49" s="35">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -2135,14 +2111,14 @@
         <v>15</v>
       </c>
       <c r="G50" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H50" s="34">
         <f>I50/G50</f>
         <v>1</v>
       </c>
       <c r="I50" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -2158,14 +2134,14 @@
         <v>15</v>
       </c>
       <c r="G51" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H51" s="34">
         <f>I51/G51</f>
         <v>1</v>
       </c>
       <c r="I51" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
@@ -2180,7 +2156,7 @@
       <c r="H52" s="40"/>
       <c r="I52" s="41">
         <f>SUM(I48:I51)</f>
-        <v>286</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" ht="9" customHeight="1">
@@ -2218,14 +2194,14 @@
         <v>15</v>
       </c>
       <c r="G55" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H55" s="34">
         <f>I55/G55</f>
         <v>1</v>
       </c>
       <c r="I55" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -2241,14 +2217,14 @@
         <v>15</v>
       </c>
       <c r="G56" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H56" s="34">
         <f>I56/G56</f>
         <v>1</v>
       </c>
       <c r="I56" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -2264,14 +2240,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H57" s="34">
         <f>I57/G57</f>
         <v>1</v>
       </c>
       <c r="I57" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -2287,14 +2263,14 @@
         <v>15</v>
       </c>
       <c r="G58" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H58" s="34">
         <f>I58/G58</f>
         <v>1</v>
       </c>
       <c r="I58" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
@@ -2309,7 +2285,7 @@
       <c r="H59" s="40"/>
       <c r="I59" s="41">
         <f>SUM(I55:I58)</f>
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="9" customHeight="1">
@@ -2347,14 +2323,14 @@
         <v>15</v>
       </c>
       <c r="G62" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H62" s="34">
         <f>I62/G62</f>
         <v>1</v>
       </c>
       <c r="I62" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -2370,14 +2346,14 @@
         <v>15</v>
       </c>
       <c r="G63" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H63" s="34">
         <f>I63/G63</f>
         <v>1</v>
       </c>
       <c r="I63" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -2392,7 +2368,7 @@
       <c r="H64" s="40"/>
       <c r="I64" s="41">
         <f>SUM(I62:I63)</f>
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" ht="9" customHeight="1">
@@ -2430,14 +2406,14 @@
         <v>15</v>
       </c>
       <c r="G67" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H67" s="34">
         <f>I67/G67</f>
         <v>1</v>
       </c>
       <c r="I67" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -2453,14 +2429,14 @@
         <v>15</v>
       </c>
       <c r="G68" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H68" s="34">
         <f>I68/G68</f>
         <v>1</v>
       </c>
       <c r="I68" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -2476,14 +2452,14 @@
         <v>15</v>
       </c>
       <c r="G69" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H69" s="34">
         <f>I69/G69</f>
         <v>1</v>
       </c>
       <c r="I69" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -2498,7 +2474,7 @@
       <c r="H70" s="40"/>
       <c r="I70" s="41">
         <f>SUM(I67:I69)</f>
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="9" customHeight="1">
@@ -2536,14 +2512,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H73" s="34">
         <f>I73/G73</f>
         <v>1</v>
       </c>
       <c r="I73" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -2559,14 +2535,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H74" s="34">
         <f>I74/G74</f>
         <v>11</v>
       </c>
       <c r="I74" s="35">
-        <v>143</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
@@ -2582,14 +2558,14 @@
         <v>15</v>
       </c>
       <c r="G75" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H75" s="34">
         <f>I75/G75</f>
         <v>1</v>
       </c>
       <c r="I75" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -2605,14 +2581,14 @@
         <v>15</v>
       </c>
       <c r="G76" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H76" s="34">
         <f>I76/G76</f>
         <v>1</v>
       </c>
       <c r="I76" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -2628,14 +2604,14 @@
         <v>15</v>
       </c>
       <c r="G77" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H77" s="34">
         <f>I77/G77</f>
         <v>1</v>
       </c>
       <c r="I77" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -2651,14 +2627,14 @@
         <v>15</v>
       </c>
       <c r="G78" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H78" s="34">
         <f>I78/G78</f>
         <v>1</v>
       </c>
       <c r="I78" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -2673,7 +2649,7 @@
       <c r="H79" s="40"/>
       <c r="I79" s="41">
         <f>SUM(I73:I78)</f>
-        <v>208</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" ht="9" customHeight="1">
@@ -2711,14 +2687,14 @@
         <v>15</v>
       </c>
       <c r="G82" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H82" s="34">
         <f>I82/G82</f>
         <v>1</v>
       </c>
       <c r="I82" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -2734,14 +2710,14 @@
         <v>15</v>
       </c>
       <c r="G83" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H83" s="34">
         <f>I83/G83</f>
         <v>1</v>
       </c>
       <c r="I83" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -2757,14 +2733,14 @@
         <v>15</v>
       </c>
       <c r="G84" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H84" s="34">
         <f>I84/G84</f>
         <v>1</v>
       </c>
       <c r="I84" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -2780,14 +2756,14 @@
         <v>15</v>
       </c>
       <c r="G85" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H85" s="34">
         <f>I85/G85</f>
         <v>1</v>
       </c>
       <c r="I85" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -2803,14 +2779,14 @@
         <v>15</v>
       </c>
       <c r="G86" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H86" s="34">
         <f>I86/G86</f>
         <v>1</v>
       </c>
       <c r="I86" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -2826,14 +2802,14 @@
         <v>15</v>
       </c>
       <c r="G87" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H87" s="34">
         <f>I87/G87</f>
         <v>1</v>
       </c>
       <c r="I87" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
@@ -2849,14 +2825,14 @@
         <v>15</v>
       </c>
       <c r="G88" s="33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H88" s="34">
         <f>I88/G88</f>
         <v>1</v>
       </c>
       <c r="I88" s="35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
@@ -2871,7 +2847,7 @@
       <c r="H89" s="40"/>
       <c r="I89" s="41">
         <f>SUM(I82:I88)</f>
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" ht="9" customHeight="1">
@@ -2932,258 +2908,56 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="94" ht="9" customHeight="1">
-      <c r="B94" s="22"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="24"/>
+    <row r="94" ht="12.75" customHeight="1">
+      <c r="B94" s="42"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="45"/>
+      <c r="C95" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="27"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="50"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="B96" s="28"/>
-      <c r="C96" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D96" s="30"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" s="33">
-        <v>1</v>
-      </c>
-      <c r="H96" s="34">
-        <f>I96/G96</f>
-        <v>2</v>
-      </c>
-      <c r="I96" s="35">
-        <v>2</v>
-      </c>
+      <c r="B96" s="51"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="53"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="B97" s="36"/>
-      <c r="C97" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="41">
-        <f>SUM(I96)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" ht="9" customHeight="1">
-      <c r="B98" s="22"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="24"/>
-    </row>
-    <row r="99" ht="12.75" customHeight="1">
-      <c r="B99" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="27"/>
-    </row>
-    <row r="100" ht="12.75" customHeight="1">
-      <c r="B100" s="28"/>
-      <c r="C100" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D100" s="30"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" s="33">
-        <v>1</v>
-      </c>
-      <c r="H100" s="34">
-        <f>I100/G100</f>
-        <v>2</v>
-      </c>
-      <c r="I100" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" ht="12.75" customHeight="1">
-      <c r="B101" s="36"/>
-      <c r="C101" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="41">
-        <f>SUM(I100)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" ht="9" customHeight="1">
-      <c r="B102" s="22"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="24"/>
-    </row>
-    <row r="103" ht="12.75" customHeight="1">
-      <c r="B103" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="27"/>
-    </row>
-    <row r="104" ht="12.75" customHeight="1">
-      <c r="B104" s="28"/>
-      <c r="C104" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D104" s="30"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" s="33">
-        <v>1</v>
-      </c>
-      <c r="H104" s="34">
-        <f>I104/G104</f>
-        <v>2</v>
-      </c>
-      <c r="I104" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" ht="12.75" customHeight="1">
-      <c r="B105" s="28"/>
-      <c r="C105" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D105" s="30"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" s="33">
-        <v>1</v>
-      </c>
-      <c r="H105" s="34">
-        <f>I105/G105</f>
-        <v>2</v>
-      </c>
-      <c r="I105" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" ht="12.75" customHeight="1">
-      <c r="B106" s="28"/>
-      <c r="C106" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D106" s="30"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" s="33">
-        <v>1</v>
-      </c>
-      <c r="H106" s="34">
-        <f>I106/G106</f>
-        <v>2</v>
-      </c>
-      <c r="I106" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" ht="12.75" customHeight="1">
-      <c r="B107" s="36"/>
-      <c r="C107" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="41">
-        <f>SUM(I104:I106)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" ht="12.75" customHeight="1">
-      <c r="B108" s="42"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="44"/>
-      <c r="I108" s="44"/>
-    </row>
-    <row r="109" ht="12.75" customHeight="1">
-      <c r="B109" s="45"/>
-      <c r="C109" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="50"/>
-    </row>
-    <row r="110" ht="12.75" customHeight="1">
-      <c r="B110" s="51"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="53"/>
-      <c r="H110" s="53"/>
-      <c r="I110" s="53"/>
-    </row>
-    <row r="111" ht="12.75" customHeight="1">
-      <c r="G111" s="51"/>
-      <c r="H111" s="51"/>
-      <c r="I111" s="51"/>
-    </row>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+    </row>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
     <row r="112" ht="12.75" customHeight="1"/>
     <row r="113" ht="12.75" customHeight="1"/>
     <row r="114" ht="12.75" customHeight="1"/>
@@ -3256,22 +3030,8 @@
     <row r="181" ht="12.75" customHeight="1"/>
     <row r="182" ht="12.75" customHeight="1"/>
     <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="66">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="F9:F10"/>
@@ -3338,14 +3098,6 @@
     <mergeCell ref="C88:E88"/>
     <mergeCell ref="B91:I91"/>
     <mergeCell ref="C92:E92"/>
-    <mergeCell ref="B95:I95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="B103:I103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>

--- a/SP_Sklad/Rep/MatInShort(1).xlsx
+++ b/SP_Sklad/Rep/MatInShort(1).xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$11:$I$93</definedName>
+    <definedName name="MatGroup">Лист1!$A$11:$I$114</definedName>
     <definedName name="MatInDet">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
@@ -268,6 +268,9 @@
     <t>Мясо конини односортне</t>
   </si>
   <si>
+    <t>конина 1 кат</t>
+  </si>
+  <si>
     <t>Субпродукти яловичини та свинини</t>
   </si>
   <si>
@@ -380,6 +383,45 @@
   </si>
   <si>
     <t>п.метр</t>
+  </si>
+  <si>
+    <t>Аміцель</t>
+  </si>
+  <si>
+    <t>Аміцель 22 мінісмок</t>
+  </si>
+  <si>
+    <t>Наша Спеції</t>
+  </si>
+  <si>
+    <t>Наша А 382*</t>
+  </si>
+  <si>
+    <t>Спайс Ленд</t>
+  </si>
+  <si>
+    <t>Максспайс Ялівець</t>
+  </si>
+  <si>
+    <t>Перець чорний гранульований лай</t>
+  </si>
+  <si>
+    <t>Часниковий порошок</t>
+  </si>
+  <si>
+    <t>Миючі засоби</t>
+  </si>
+  <si>
+    <t>Каустична сода</t>
+  </si>
+  <si>
+    <t>Екохім-24. коністра 12 кг</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>Бланідас-Ц-ЦИП Мил 20 л. 24,8 кг.</t>
   </si>
   <si>
     <t>Всього по відомості:</t>
@@ -1305,8 +1347,8 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f>CONCATENATE("з "&amp;"01.07.2016"," по "&amp;"30.09.2016")</f>
-        <v>з 01.07.2016 по 30.09.2016</v>
+        <f>CONCATENATE("з "&amp;"01.09.2015"," по "&amp;"30.09.2016")</f>
+        <v>з 01.09.2015 по 30.09.2016</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1420,14 +1462,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H13" s="34">
         <f>I13/G13</f>
         <v>10</v>
       </c>
       <c r="I13" s="35">
-        <v>50</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -1443,14 +1485,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="33">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H14" s="34">
         <f>I14/G14</f>
-        <v>1</v>
+        <v>2.7183999999999999</v>
       </c>
       <c r="I14" s="35">
-        <v>5</v>
+        <v>67.959999999999994</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -1466,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H15" s="34">
         <f>I15/G15</f>
@@ -1488,7 +1530,7 @@
       <c r="H16" s="40"/>
       <c r="I16" s="41">
         <f>SUM(I13:I15)</f>
-        <v>55</v>
+        <v>307.95999999999998</v>
       </c>
     </row>
     <row r="17" ht="9" customHeight="1">
@@ -1526,14 +1568,14 @@
         <v>15</v>
       </c>
       <c r="G19" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H19" s="34">
         <f>I19/G19</f>
         <v>1</v>
       </c>
       <c r="I19" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1549,14 +1591,14 @@
         <v>15</v>
       </c>
       <c r="G20" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H20" s="34">
         <f>I20/G20</f>
         <v>1</v>
       </c>
       <c r="I20" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -1572,14 +1614,14 @@
         <v>15</v>
       </c>
       <c r="G21" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H21" s="34">
         <f>I21/G21</f>
         <v>1</v>
       </c>
       <c r="I21" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1595,14 +1637,14 @@
         <v>15</v>
       </c>
       <c r="G22" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H22" s="34">
         <f>I22/G22</f>
         <v>1</v>
       </c>
       <c r="I22" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -1617,7 +1659,7 @@
       <c r="H23" s="40"/>
       <c r="I23" s="41">
         <f>SUM(I19:I22)</f>
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" ht="9" customHeight="1">
@@ -1655,14 +1697,14 @@
         <v>15</v>
       </c>
       <c r="G26" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H26" s="34">
         <f>I26/G26</f>
         <v>1</v>
       </c>
       <c r="I26" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -1678,14 +1720,14 @@
         <v>15</v>
       </c>
       <c r="G27" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H27" s="34">
         <f>I27/G27</f>
         <v>1</v>
       </c>
       <c r="I27" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -1701,14 +1743,14 @@
         <v>15</v>
       </c>
       <c r="G28" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H28" s="34">
         <f>I28/G28</f>
         <v>1</v>
       </c>
       <c r="I28" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1723,7 +1765,7 @@
       <c r="H29" s="40"/>
       <c r="I29" s="41">
         <f>SUM(I26:I28)</f>
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="9" customHeight="1">
@@ -1761,14 +1803,14 @@
         <v>15</v>
       </c>
       <c r="G32" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H32" s="34">
         <f>I32/G32</f>
         <v>1</v>
       </c>
       <c r="I32" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1784,14 +1826,14 @@
         <v>15</v>
       </c>
       <c r="G33" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H33" s="34">
         <f>I33/G33</f>
         <v>1</v>
       </c>
       <c r="I33" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -1807,14 +1849,14 @@
         <v>15</v>
       </c>
       <c r="G34" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H34" s="34">
         <f>I34/G34</f>
         <v>1</v>
       </c>
       <c r="I34" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1829,7 +1871,7 @@
       <c r="H35" s="40"/>
       <c r="I35" s="41">
         <f>SUM(I32:I34)</f>
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" ht="9" customHeight="1">
@@ -1867,14 +1909,14 @@
         <v>15</v>
       </c>
       <c r="G38" s="33">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="H38" s="34">
         <f>I38/G38</f>
-        <v>4.9840796019900502</v>
+        <v>4.91015625</v>
       </c>
       <c r="I38" s="35">
-        <v>5009</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -1890,14 +1932,14 @@
         <v>15</v>
       </c>
       <c r="G39" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H39" s="34">
         <f>I39/G39</f>
         <v>1</v>
       </c>
       <c r="I39" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -1913,14 +1955,14 @@
         <v>15</v>
       </c>
       <c r="G40" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H40" s="34">
         <f>I40/G40</f>
         <v>1</v>
       </c>
       <c r="I40" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -1936,14 +1978,14 @@
         <v>15</v>
       </c>
       <c r="G41" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H41" s="34">
         <f>I41/G41</f>
         <v>1</v>
       </c>
       <c r="I41" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -1959,14 +2001,14 @@
         <v>15</v>
       </c>
       <c r="G42" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H42" s="34">
         <f>I42/G42</f>
         <v>1</v>
       </c>
       <c r="I42" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -1982,14 +2024,14 @@
         <v>15</v>
       </c>
       <c r="G43" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H43" s="34">
         <f>I43/G43</f>
         <v>1</v>
       </c>
       <c r="I43" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -2005,14 +2047,14 @@
         <v>15</v>
       </c>
       <c r="G44" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H44" s="34">
         <f>I44/G44</f>
         <v>1</v>
       </c>
       <c r="I44" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -2027,7 +2069,7 @@
       <c r="H45" s="40"/>
       <c r="I45" s="41">
         <f>SUM(I38:I44)</f>
-        <v>5039</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="46" ht="9" customHeight="1">
@@ -2065,14 +2107,14 @@
         <v>15</v>
       </c>
       <c r="G48" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H48" s="34">
         <f>I48/G48</f>
         <v>10</v>
       </c>
       <c r="I48" s="35">
-        <v>50</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -2088,14 +2130,14 @@
         <v>15</v>
       </c>
       <c r="G49" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H49" s="34">
         <f>I49/G49</f>
         <v>10</v>
       </c>
       <c r="I49" s="35">
-        <v>50</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -2111,14 +2153,14 @@
         <v>15</v>
       </c>
       <c r="G50" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H50" s="34">
         <f>I50/G50</f>
         <v>1</v>
       </c>
       <c r="I50" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -2134,14 +2176,14 @@
         <v>15</v>
       </c>
       <c r="G51" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H51" s="34">
         <f>I51/G51</f>
         <v>1</v>
       </c>
       <c r="I51" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
@@ -2156,7 +2198,7 @@
       <c r="H52" s="40"/>
       <c r="I52" s="41">
         <f>SUM(I48:I51)</f>
-        <v>110</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" ht="9" customHeight="1">
@@ -2194,14 +2236,14 @@
         <v>15</v>
       </c>
       <c r="G55" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H55" s="34">
         <f>I55/G55</f>
         <v>1</v>
       </c>
       <c r="I55" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -2217,14 +2259,14 @@
         <v>15</v>
       </c>
       <c r="G56" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H56" s="34">
         <f>I56/G56</f>
         <v>1</v>
       </c>
       <c r="I56" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -2240,14 +2282,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H57" s="34">
         <f>I57/G57</f>
         <v>1</v>
       </c>
       <c r="I57" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -2263,14 +2305,14 @@
         <v>15</v>
       </c>
       <c r="G58" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H58" s="34">
         <f>I58/G58</f>
         <v>1</v>
       </c>
       <c r="I58" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
@@ -2285,7 +2327,7 @@
       <c r="H59" s="40"/>
       <c r="I59" s="41">
         <f>SUM(I55:I58)</f>
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" ht="9" customHeight="1">
@@ -2323,14 +2365,14 @@
         <v>15</v>
       </c>
       <c r="G62" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H62" s="34">
         <f>I62/G62</f>
         <v>1</v>
       </c>
       <c r="I62" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -2346,82 +2388,80 @@
         <v>15</v>
       </c>
       <c r="G63" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H63" s="34">
         <f>I63/G63</f>
         <v>1</v>
       </c>
       <c r="I63" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="B64" s="36"/>
-      <c r="C64" s="37" t="s">
+      <c r="B64" s="28"/>
+      <c r="C64" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="30"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="33">
+        <v>1000</v>
+      </c>
+      <c r="H64" s="34">
+        <f>I64/G64</f>
+        <v>50</v>
+      </c>
+      <c r="I64" s="35">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="65" ht="12.75" customHeight="1">
+      <c r="B65" s="36"/>
+      <c r="C65" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="41">
-        <f>SUM(I62:I63)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" ht="9" customHeight="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="24"/>
-    </row>
-    <row r="66" ht="12.75" customHeight="1">
-      <c r="B66" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="27"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="41">
+        <f>SUM(I62:I64)</f>
+        <v>50048</v>
+      </c>
+    </row>
+    <row r="66" ht="9" customHeight="1">
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="24"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="33">
-        <v>5</v>
-      </c>
-      <c r="H67" s="34">
-        <f>I67/G67</f>
-        <v>1</v>
-      </c>
-      <c r="I67" s="35">
-        <v>5</v>
-      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="27"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="B68" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>85</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>86</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="31"/>
@@ -2429,22 +2469,22 @@
         <v>15</v>
       </c>
       <c r="G68" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H68" s="34">
         <f>I68/G68</f>
         <v>1</v>
       </c>
       <c r="I68" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="B69" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="D69" s="30"/>
       <c r="E69" s="31"/>
@@ -2452,82 +2492,82 @@
         <v>15</v>
       </c>
       <c r="G69" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H69" s="34">
         <f>I69/G69</f>
         <v>1</v>
       </c>
       <c r="I69" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="B70" s="36"/>
-      <c r="C70" s="37" t="s">
+      <c r="B70" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="33">
+        <v>24</v>
+      </c>
+      <c r="H70" s="34">
+        <f>I70/G70</f>
+        <v>1</v>
+      </c>
+      <c r="I70" s="35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" ht="12.75" customHeight="1">
+      <c r="B71" s="36"/>
+      <c r="C71" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="41">
-        <f>SUM(I67:I69)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" ht="9" customHeight="1">
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="24"/>
-    </row>
-    <row r="72" ht="12.75" customHeight="1">
-      <c r="B72" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="27"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="41">
+        <f>SUM(I68:I70)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" ht="9" customHeight="1">
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="24"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="30"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="33">
-        <v>5</v>
-      </c>
-      <c r="H73" s="34">
-        <f>I73/G73</f>
-        <v>1</v>
-      </c>
-      <c r="I73" s="35">
-        <v>5</v>
-      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="27"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="B74" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="29" t="s">
         <v>92</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="31"/>
@@ -2535,22 +2575,22 @@
         <v>15</v>
       </c>
       <c r="G74" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H74" s="34">
         <f>I74/G74</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I74" s="35">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="B75" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="29" t="s">
         <v>94</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>95</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="31"/>
@@ -2558,22 +2598,22 @@
         <v>15</v>
       </c>
       <c r="G75" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H75" s="34">
         <f>I75/G75</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I75" s="35">
-        <v>5</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="B76" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="29" t="s">
         <v>96</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>97</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="31"/>
@@ -2581,22 +2621,22 @@
         <v>15</v>
       </c>
       <c r="G76" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H76" s="34">
         <f>I76/G76</f>
         <v>1</v>
       </c>
       <c r="I76" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="B77" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="29" t="s">
         <v>98</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>99</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="31"/>
@@ -2604,22 +2644,22 @@
         <v>15</v>
       </c>
       <c r="G77" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H77" s="34">
         <f>I77/G77</f>
         <v>1</v>
       </c>
       <c r="I77" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="B78" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="29" t="s">
         <v>100</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>101</v>
       </c>
       <c r="D78" s="30"/>
       <c r="E78" s="31"/>
@@ -2627,82 +2667,82 @@
         <v>15</v>
       </c>
       <c r="G78" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H78" s="34">
         <f>I78/G78</f>
         <v>1</v>
       </c>
       <c r="I78" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="B79" s="36"/>
-      <c r="C79" s="37" t="s">
+      <c r="B79" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" s="30"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="33">
+        <v>24</v>
+      </c>
+      <c r="H79" s="34">
+        <f>I79/G79</f>
+        <v>1</v>
+      </c>
+      <c r="I79" s="35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" ht="12.75" customHeight="1">
+      <c r="B80" s="36"/>
+      <c r="C80" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="41">
-        <f>SUM(I73:I78)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" ht="9" customHeight="1">
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="24"/>
-    </row>
-    <row r="81" ht="12.75" customHeight="1">
-      <c r="B81" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="27"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="41">
+        <f>SUM(I74:I79)</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" ht="9" customHeight="1">
+      <c r="B81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="24"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="33">
-        <v>5</v>
-      </c>
-      <c r="H82" s="34">
-        <f>I82/G82</f>
-        <v>1</v>
-      </c>
-      <c r="I82" s="35">
-        <v>5</v>
-      </c>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="27"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="B83" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>106</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="31"/>
@@ -2710,22 +2750,22 @@
         <v>15</v>
       </c>
       <c r="G83" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H83" s="34">
         <f>I83/G83</f>
         <v>1</v>
       </c>
       <c r="I83" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="B84" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="29" t="s">
         <v>107</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>108</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="31"/>
@@ -2733,22 +2773,22 @@
         <v>15</v>
       </c>
       <c r="G84" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H84" s="34">
         <f>I84/G84</f>
         <v>1</v>
       </c>
       <c r="I84" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="B85" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="29" t="s">
         <v>109</v>
-      </c>
-      <c r="C85" s="29" t="s">
-        <v>110</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="31"/>
@@ -2756,22 +2796,22 @@
         <v>15</v>
       </c>
       <c r="G85" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H85" s="34">
         <f>I85/G85</f>
         <v>1</v>
       </c>
       <c r="I85" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="B86" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>112</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="31"/>
@@ -2779,22 +2819,22 @@
         <v>15</v>
       </c>
       <c r="G86" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H86" s="34">
         <f>I86/G86</f>
         <v>1</v>
       </c>
       <c r="I86" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="B87" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="29" t="s">
         <v>113</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>114</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="31"/>
@@ -2802,22 +2842,22 @@
         <v>15</v>
       </c>
       <c r="G87" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H87" s="34">
         <f>I87/G87</f>
         <v>1</v>
       </c>
       <c r="I87" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="B88" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="29" t="s">
         <v>115</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>116</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="31"/>
@@ -2825,146 +2865,464 @@
         <v>15</v>
       </c>
       <c r="G88" s="33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H88" s="34">
         <f>I88/G88</f>
         <v>1</v>
       </c>
       <c r="I88" s="35">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="B89" s="36"/>
-      <c r="C89" s="37" t="s">
+      <c r="B89" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="30"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="33">
+        <v>24</v>
+      </c>
+      <c r="H89" s="34">
+        <f>I89/G89</f>
+        <v>1</v>
+      </c>
+      <c r="I89" s="35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" ht="12.75" customHeight="1">
+      <c r="B90" s="36"/>
+      <c r="C90" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="41">
-        <f>SUM(I82:I88)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" ht="9" customHeight="1">
-      <c r="B90" s="22"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="24"/>
-    </row>
-    <row r="91" ht="12.75" customHeight="1">
-      <c r="B91" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="27"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="41">
+        <f>SUM(I83:I89)</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" ht="9" customHeight="1">
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="24"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="B92" s="28"/>
-      <c r="C92" s="29" t="s">
+      <c r="B92" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D92" s="30"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="32" t="s">
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="27"/>
+    </row>
+    <row r="93" ht="12.75" customHeight="1">
+      <c r="B93" s="28"/>
+      <c r="C93" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="G92" s="33">
+      <c r="D93" s="30"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G93" s="33">
         <v>85</v>
       </c>
-      <c r="H92" s="34">
-        <f>I92/G92</f>
+      <c r="H93" s="34">
+        <f>I93/G93</f>
         <v>22.823529411764707</v>
       </c>
-      <c r="I92" s="35">
+      <c r="I93" s="35">
         <v>1940</v>
       </c>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
-      <c r="B93" s="36"/>
-      <c r="C93" s="37" t="s">
+    <row r="94" ht="12.75" customHeight="1">
+      <c r="B94" s="36"/>
+      <c r="C94" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="41">
-        <f>SUM(I92)</f>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="41">
+        <f>SUM(I93)</f>
         <v>1940</v>
       </c>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
-      <c r="B94" s="42"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-    </row>
-    <row r="95" ht="12.75" customHeight="1">
-      <c r="B95" s="45"/>
-      <c r="C95" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="50"/>
+    <row r="95" ht="9" customHeight="1">
+      <c r="B95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="24"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="B96" s="51"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
+      <c r="B96" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="27"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="51"/>
-    </row>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97" s="30"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="33">
+        <v>1</v>
+      </c>
+      <c r="H97" s="34">
+        <f>I97/G97</f>
+        <v>2</v>
+      </c>
+      <c r="I97" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" ht="12.75" customHeight="1">
+      <c r="B98" s="36"/>
+      <c r="C98" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="41">
+        <f>SUM(I97)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" ht="9" customHeight="1">
+      <c r="B99" s="22"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="24"/>
+    </row>
+    <row r="100" ht="12.75" customHeight="1">
+      <c r="B100" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="27"/>
+    </row>
+    <row r="101" ht="12.75" customHeight="1">
+      <c r="B101" s="28"/>
+      <c r="C101" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" s="30"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="33">
+        <v>1</v>
+      </c>
+      <c r="H101" s="34">
+        <f>I101/G101</f>
+        <v>2</v>
+      </c>
+      <c r="I101" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" ht="12.75" customHeight="1">
+      <c r="B102" s="36"/>
+      <c r="C102" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="41">
+        <f>SUM(I101)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" ht="9" customHeight="1">
+      <c r="B103" s="22"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="24"/>
+    </row>
+    <row r="104" ht="12.75" customHeight="1">
+      <c r="B104" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="27"/>
+    </row>
+    <row r="105" ht="12.75" customHeight="1">
+      <c r="B105" s="28"/>
+      <c r="C105" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="30"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="33">
+        <v>1</v>
+      </c>
+      <c r="H105" s="34">
+        <f>I105/G105</f>
+        <v>2</v>
+      </c>
+      <c r="I105" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" ht="12.75" customHeight="1">
+      <c r="B106" s="28"/>
+      <c r="C106" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="30"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="33">
+        <v>1</v>
+      </c>
+      <c r="H106" s="34">
+        <f>I106/G106</f>
+        <v>2</v>
+      </c>
+      <c r="I106" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" ht="12.75" customHeight="1">
+      <c r="B107" s="28"/>
+      <c r="C107" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D107" s="30"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="33">
+        <v>1</v>
+      </c>
+      <c r="H107" s="34">
+        <f>I107/G107</f>
+        <v>2</v>
+      </c>
+      <c r="I107" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" ht="12.75" customHeight="1">
+      <c r="B108" s="36"/>
+      <c r="C108" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="41">
+        <f>SUM(I105:I107)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" ht="9" customHeight="1">
+      <c r="B109" s="22"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="24"/>
+    </row>
+    <row r="110" ht="12.75" customHeight="1">
+      <c r="B110" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="27"/>
+    </row>
+    <row r="111" ht="12.75" customHeight="1">
+      <c r="B111" s="28"/>
+      <c r="C111" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" s="30"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="33">
+        <v>451</v>
+      </c>
+      <c r="H111" s="34">
+        <f>I111/G111</f>
+        <v>45</v>
+      </c>
+      <c r="I111" s="35">
+        <v>20295</v>
+      </c>
+    </row>
+    <row r="112" ht="12.75" customHeight="1">
+      <c r="B112" s="28"/>
+      <c r="C112" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="30"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G112" s="33">
+        <v>891.63779999999997</v>
+      </c>
+      <c r="H112" s="34">
+        <f>I112/G112</f>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="I112" s="35">
+        <v>6241.4646000000002</v>
+      </c>
+    </row>
+    <row r="113" ht="12.75" customHeight="1">
+      <c r="B113" s="28"/>
+      <c r="C113" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D113" s="30"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G113" s="33">
+        <v>0.1234</v>
+      </c>
+      <c r="H113" s="34">
+        <f>I113/G113</f>
+        <v>450</v>
+      </c>
+      <c r="I113" s="35">
+        <v>55.530000000000001</v>
+      </c>
+    </row>
+    <row r="114" ht="12.75" customHeight="1">
+      <c r="B114" s="36"/>
+      <c r="C114" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="41">
+        <f>SUM(I111:I113)</f>
+        <v>26591.994599999998</v>
+      </c>
+    </row>
+    <row r="115" ht="12.75" customHeight="1">
+      <c r="B115" s="42"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+    </row>
+    <row r="116" ht="12.75" customHeight="1">
+      <c r="B116" s="45"/>
+      <c r="C116" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="49"/>
+      <c r="H116" s="49"/>
+      <c r="I116" s="50"/>
+    </row>
+    <row r="117" ht="12.75" customHeight="1">
+      <c r="B117" s="51"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="51"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="53"/>
+      <c r="I117" s="53"/>
+    </row>
+    <row r="118" ht="12.75" customHeight="1">
+      <c r="G118" s="51"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="51"/>
+    </row>
     <row r="119" ht="12.75" customHeight="1"/>
     <row r="120" ht="12.75" customHeight="1"/>
     <row r="121" ht="12.75" customHeight="1"/>
@@ -3030,8 +3388,29 @@
     <row r="181" ht="12.75" customHeight="1"/>
     <row r="182" ht="12.75" customHeight="1"/>
     <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="79">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="F9:F10"/>
@@ -3077,27 +3456,40 @@
     <mergeCell ref="B61:I61"/>
     <mergeCell ref="C62:E62"/>
     <mergeCell ref="C63:E63"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="B67:I67"/>
     <mergeCell ref="C68:E68"/>
     <mergeCell ref="C69:E69"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="B73:I73"/>
     <mergeCell ref="C74:E74"/>
     <mergeCell ref="C75:E75"/>
     <mergeCell ref="C76:E76"/>
     <mergeCell ref="C77:E77"/>
     <mergeCell ref="C78:E78"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="B82:I82"/>
     <mergeCell ref="C83:E83"/>
     <mergeCell ref="C84:E84"/>
     <mergeCell ref="C85:E85"/>
     <mergeCell ref="C86:E86"/>
     <mergeCell ref="C87:E87"/>
     <mergeCell ref="C88:E88"/>
-    <mergeCell ref="B91:I91"/>
-    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="B100:I100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="B104:I104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="B110:I110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
